--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58134221-52D8-403D-A906-0C0D22B6F1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55221FA-378D-4C8B-AFAC-9652660EFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6250" yWindow="880" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>ScoreType</t>
   </si>
@@ -54,18 +54,9 @@
     <t>PORCN,WNT1,WNT2,WNT2B,WNT3,WNT3A,WNT4,WNT5A,WNT5B,WNT6,WNT7A,WNT7B,WNT8A,WNT8B,WNT9A,WNT9B,WNT10B,WNT10A,WNT11,WNT16,CER1,NOTUM,WIF1,SOST,DKK1,DKK2,DKK4,SERPINF1,SFRP1,SFRP2,FRZB,SFRP4,SFRP5,RSPO1,RSPO2,RSPO3,RSPO4,LGR4,LGR5,LGR6,RNF43,ZNRF3,FZD1,FZD7,FZD2,FZD3,FZD4,FZD5,FZD8,FZD6,FZD10,FZD9,LRP5,LRP6,BAMBI,APCDD1,CSNK1E,CCDC88C,DVL3,DVL1,DVL2,FRAT1,PEG12,FRAT2,CSNK2A1,CSNK2A2,CSNK2B,NKD1,NKD2,CXXC4,SENP2,SEMP2L2B,SEMP2L2A,GM9839,SEMP2L1,GSK3B,CTNNB1,AXIN1,AXIN2,APC,APC2,CSNK1A1,TCF7,TCF7L1,TCF7L2,LEF1,CTNNBIP1,CBY1,CHD8,SOX17,CTBP1,CTBP2,TLE7,TLE6,TLE1,TLE2,TLE3,TLE4,CTNND2,CREBBP,EP300,RUVBL1,SMAD4,SMAD3,MAP3K7,NLK,MYC,JUN,FOSL1,CCND1,CCND2,CCND3,CCN4,PPARD,MMP7,PSEN1,PRKACA,PRKACB,TRP53,SIAH1A,SIAH1B,CACYBP,SKP1,TBL1X,TBL1XR1,FBXW11,BTRC,CUL1,RBX1,GPC4,ROR1,ROR2,RYK,VANGL2,VANGL1,PRICKLE2,PRICKLE1,PRICKLE4,PRICKLE3,INVS,DAAM1,DAAM2,RHOA,ROCK2,RAC1,RAC2,RAC3,MAPK8,MAPK9,MAPK10,PLCB1,PLCB3,PLCB4,PLCB2,CAMK2D,CAMK2G,CAMK2B,CAMK2A,PPP3CC,PPP3CA,PPP3CB,PPP3R1,PPP3R2,PRKCA,PRKCB,PRKCG,NFATC1,NFATC2,NFATC3,NFATC4</t>
   </si>
   <si>
-    <t>Tumor markers</t>
-  </si>
-  <si>
     <t>WFDC2,MUC16,CLDN4</t>
   </si>
   <si>
-    <t>DOI:10.1158/0008-5472.CAN-22-1821</t>
-  </si>
-  <si>
-    <t>Stroma markers</t>
-  </si>
-  <si>
     <t>COL1A1,VIM,FN1</t>
   </si>
   <si>
@@ -409,6 +400,27 @@
   </si>
   <si>
     <t>DOI:10.1016/j.ccell.2023.03.009</t>
+  </si>
+  <si>
+    <t>RP11-277P12.10,RP13-895J2.6,BNC1,MAGEA6,ISX,MAGEA3,RP13-614K11.2,CDH7,CALML3,A1CF,CLEC2L,ZNF280A,ANXA13,SOX14,GAL,RP11-626H12.2,FGB,HOXD11,CDX2,LINC00973,CTC-529P8.1,LINC01234,RP11-416I2.1,LCN15,ONECUT2,KCNF1,CPN1,CDK5R2,GLYATL1,RP1-140K8.5,RP11-221N13.3,PPP1R14D,RP11-244M2.1,CEL,RETNLB,PBK,LRRIQ4,ANLN,DEPDC1,RNF186,LINC01510,HMGA2,ITPKA,ACMSD,SYNGR4,RP11-734K21.5,UGT2B15,LINC00460,MYO3A,PITX1,PCSK1,CTD-2034I21.2,SPC25,RP11-54H7.4,PLK1,INSM1,UGT2B7,DLGAP5,TBX10,KRTAP4-1,PKMYT1,STRA6,MND1,AZGP1,CNTD2,AC005355.2,CDCA3,MET,SLC13A2,SLC38A3,GJB5,RRM2,CDC45,ADGRF4,PHGR1,KIF4A,NPTX2,FGL1,UBE2C,CALCA,GJB4,PCDHGA1,VIL1,CCNB2,FGFBP1,RP11-595B24.2,RAD54L,EPHA8,FAM25A,CRYBA2,CPLX2,AC011298.2,DIAPH3,AURKB,RP11-211G23.2,ENTPD2,BIRC5,HJURP,HMMR,DHRS2,GTSE1,SERPINB5,DBNDD1,PADI1,FAM83A,KRT6A,COL17A1,SPDEF,CTC-573N18.1,S100A2,IL37,DPP10,STC2,RP11-546K22.1,CDC25C,CTD-3010D24.3,SAA1,TK1,LY6D,XG,RP5-875H18.9,E2F8,HEPACAM2,DLL3,MKI67,SLC25A48,RNF183,KIF14,CDCA5,KLK5,CMBL,PHYHIPL,INHA,CENPA,MELK,BCO1,FABP1,PLOD2,LINC01511,GJC3,TMED6,AC007879.7,KIF12,SAA2,CHST1,GALNT14,MYBL2,SLC7A9,VSTM2L,GAS2,RP13-463N16.6,TYMS,KRT24,SAA4,KIAA0101,BEAN1,GRB14,ZFHX4,AGT,RP11-368L12.1,APCDD1L,S100A3</t>
+  </si>
+  <si>
+    <t>PMID:35637521</t>
+  </si>
+  <si>
+    <t>Dohmen et al (2022) Tumor cells</t>
+  </si>
+  <si>
+    <t>RGS1,TSPAN8,CD8B,CLDN8,PIFO,C1ORF189,BCHE,ELFN1,GJA1,RP11-329N22.1,FOXC2,CD200R1,CORIN,LIPH,ANKRD45,PID1,RP11-128M1.1,KIR3DL2,CD27,BMP3,MYL6B,FAM26E,DPT,TRBV28,STAB2,RPS6KA2,SYTL5,TMC4,CXCL17,EPHA10,COL1A1,SFTPA2,SOX2,LCK,RP1-60O19.1,KIAA1755,CLIP3,RP11-89K21.1,NOTCH3,RP3-446N13.5,RAB31,TMEM190,GZMA,PLCXD3,RP11-74E22.6,GSTA1,CHST9,GALNT16,GPRC5B,MASP1,BLK,TRGV8,ATP6V1C2,RASGRP1,STAP1,LRCOL1,NOX4,C5ORF49,TUBA4B,TOX3,KIR3DL1,EFNA1,C1ORF194,CHRNA6,NREP,TMEM54,EFEMP2,FLNC,CNTFR,SGCD,CTHRC1,GIP,KLK10,CFAP100,TM4SF4,CYP2C18,FILIP1,IGHD,EGFL6,CNTN4,CNIH2,WFDC10B,IGLV4-60,CATSPERD,ABCC8,RP11-290F5.1,B4GALNT2,LGI4,CTSE,RP11-106M7.1,LTB,TTC25,MUC13,PCDH18,HNF1B,GRHL2,HSPB2,C9ORF116,CYP4F22,LINC01436,NCR1,IFNG,TEKT1,PFN2,LINC01207,SEMA3B,CPXM2,DOK2,PSMA8,MAL2,EVI2B,CD19,SLC6A14,SDCBP2,GRM8,LRRC34,IGFL3,LINC01266,PI15,GIPC3,HSF5,SOWAHA,MIR4458HG,ADGRL4,NLRC3,C1ORF141,IGLV9-49,KCNJ8,SYDE1,SMIM6,LINC00544,CCDC74A,APCDD1,FOXQ1,CREM,RP11-18H21.1,CDHR2,CROCC2,MOXD1,LRFN5,RSPH14,FRZB,C17ORF82,FSTL4,HCST,ADGB,C22ORF15,LINC01612,FOXJ1,CCDC129,SAXO2,C4BPB,COX7A1,FOXS1,PYHIN1,COL1A2,CFAP58,LINC01133,OLFML1,CRISP2,DCDC2B,ITK,CILP,PLA2G2A,OR51E1,NCR3,LINC00844,MEOX2,PDIA2,RTP5,PLA2G5,TM4SF5,MS4A2,EGFLAM,FAM92B,IL2RB,ABLIM3,CCL2,PRRG3,KLRC1,REM1,DCN,EVA1A,TRGV3,BPIFA2,TRGV9,IL9R,TM4SF20,RHOBTB2,SCARA5,PLS1,HS3ST3A1,APELA,UNC5C,ZNF20,TRAV8-2,RSPH9,HAS2,GRAP2,OGN,CRTAM,C2ORF70,B3GNT6,PLN,ZNF683,CTD-2005H7.1,HSD17B6,C1QTNF2,CCL5,C1S,APOBEC4,TRAV26-1,TRAT1,SULT1A2,FNDC1,KIR2DL1,CD5,FCRL1,CFAP157,CTSW,CD7,LGALS4,LMO3,TMC5,SLA2,XCL2,COL12A1,CD24,EFCC1,TMEM47,KANK4,RP11-146I2.1,ELF3,CCDC114,CD37,AC092580.4,TRGV2,PCK1,SLC2A4,TBC1D10C,MSRB3,HSPB3,PRG4,NR0B2,AF127936.3,ARHGEF16,COL6A1,DLX5,FBN1,DIO3OS,RP11-291B21.2,RP11-240M16.1,WFDC2,STK32A,CD226,TNFRSF17,CALD1,TRAPPC3L,PIEZO2,C6,CCR7,CYTIP,WFDC6,GFRA3,SLPI,TMEM158,IKZF3,SLAMF6,S100A14,SOX18,UCN3,SRD5A2,TRAV16,DYDC1,GUCY1A2,TBX21,TRAV4,GJA4,LAX1,MISP,APOBEC1,PODN,ASS1,RP11-108M9.4,MYH14,PRELP,CFAP45,C3ORF70,RIMBP2,AL928768.3,KCNT2,IL4,MFAP2,PCOLCE,TM6SF2,ATP1A2,CDK2AP1,PIH1D3,STRN3,RP11-109E24.1,NOTUM,SULF1,CST4,FCMR,BEST4,NDRG2,LINC01571,HRCT1,PLA2G10,LRRC43,EFCAB10,IKZF1,DNAI1,DEUP1,TRAV2,VWA5B2,PLPPR4,PCDHB10,CFAP74,SIRPG,ANKRD66,MDH1B,C1R,LHFP,PCSK1N,ARNT2,RARRES2,PRF1,NKD2,GPRIN2,SLA,RAB25,WDR93,CTD-2171N6.1,FUT2,LRRC71,TCN1,FAM180A,COMP,MAP3K19,COL3A1,GUCA2A,CD8A,GPX8,TMIGD2,KIF6,CD53,APOH,CTC-436P18.3,KCNMB1,SLC16A2,GPT,ADGRA2,RAMP2,ABCA8,MXRA8,RP11-367G6.3,CDH11,TESPA1,CCDC175,KLRD1,SMIM22,PALM2,ZIC1,WDR38,CAPN8,CKMT1A,CD69,CFAP65,PRR15L,ARMC4,NRGN,ZNF80,KCNA3,PRDM6,ADAMTS5,KLRC4,C1ORF158,MRVI1,PPP1R14A,RP11-176H8.1,NPC2,GJA5,ITGA11,CTD-2147F2.1,RP11-462G2.1,RIBC2,RGS22,RP11-109M17.2,MEF2C,PROX2,XDH,CD40LG,LRRIQ1,RSPH4A,TRAV20,TMEM125,RP11-95H3.1,C9ORF47,DRD5,TRAV8-4,SVEP1,FHL5,OMD,PPP1R17,FAM43B,TEKT3,KBTBD12,RGN,CD52,SCGB2A1,RUNX1T1,RASEF,RP11-330A16.1,RP11-239A17.1,GLTPD2,PTPRD-AS1,KIF26B,CLDN4,SYTL3,NBAT1,JPH2,KLHL13,ITGBL1,PTK6,MS4A1,AKR1B10,IGSF9,TRGV10,AC002331.1,GAL3ST1,FCRL3,TRBV6-5,ANGPTL2,TSNAXIP1,PIH1D2,NOG,CCDC148,DNAH6,SYNPO2,NME5,LY9,RP11-342D11.3,WIF1,AC104820.2,MALL,HMGCLL1,CLSTN2,CLDN16,LAPTM5,RP11-125O18.1,LINC01317,NR2F1,GUCA2B,CDHR5,CTD-2626G11.2,AK8,RASSF10,ADAMTS16,RP11-620J15.3,TRAV36DV7,C7ORF57,HYDIN,GJC1,HHATL,ZBBX,FAM170B,MDK,RP11-428G5.5,PCDHB11,KRT16,SPSB4,SFTA2,C2ORF73,KLK11,TDGF1,PIP,COL6A2,C6ORF118,ELOVL2,SRGN,EPN3,SFTPD,CHRDL1,CST3,TRAV13-1,TRAF3IP3,SPRR3,LAT,RP1-142L7.8,LGR5,TEPP,CGN,ATP8A2,TRBV14,PROK2,PLA2G2F,CCNA1,HMGCS2,RERGL,LUM,TMEM184A,FIBCD1,TRBV2,BOC,CD160,PLEKHH2,CD164L2,PGLYRP2,SLC44A4,CLDN7,GML,RP11-522B15.3,CKB,AOX1,TNFSF8,SCNN1A,FOXL1,LINC00702,KIR2DL3,SPINK4,COL10A1,TFF1,FXYD3,TRAV6,CSDC2,LRRC46,HMCN1,CXCR5,CYP2B6,TRGV4,S100B,PTPRC,CCR6,CD2,MMP13,TMEM212,ART4,ROPN1B,RP11-753D20.3,TRAV23DV6,CYP4B1,VWF,MUC1,ADGRF1,PTN,VEGFD,SFRP4,AKR7A3,CAPS,FAM183A,VWA3B,LCN2,FCRLA,SPATA17,NGF,C1QTNF4,SLIT2,PCDH8,MYL9,RIBC1,SCN2B,TBX4,FAM83B,TRAV12-1,CERKL,MUC5AC,RP11-368I7.4,MAMDC2,GPX2,RIIAD1,TRBV6-2,CDH6,FABP6,LRCH2,BICC1,ONECUT3,FRMD6,TRAV1-1,TRBV5-1,SFRP2,TACC2,SYNDIG1,MTUS1,PACRG,AGTR1,COL14A1,PPIL6,PDZK1IP1,RP11-486M23.1,KLRC2,SV2B,TPPP3,RBPMS,GPR65,RSPH1,AGR2,PALM3,GATA6-AS1,ELF5,PDCD1,IL12RB1,LRRC17,LINC01117,RP11-879F14.2,MYRF,CD248,ZFPM2,FYB,EMILIN1,PLAC9,LTBP2,BMPER,HOXB8,HSD17B2,TRAC,ANTXR1,CST2,HOXD9,LRRC66,SEMA3A,SCN7A,ADGRF5,CD244,GPR171,HOXA2,ENOX1,TBX2,SPAG6,PALM,GRIN3B,POSTN,CCDC113,RP11-796E10.1,KLRB1,LIM2,C1ORF64,MORN5,LRRC18,XCL1,FCRL6,ANGPTL1,RP11-297L17.2,SELL,MEG8,ARL14,UBASH3A,VPREB3,ADAMTS3,CDH17,CGNL1,RP11-467J12.4,CASC9,CD79A,RNASE1,ADH1B,CACNA1C,KCNRG,THBS2,ENTPD8,AP000344.3,SERPINB4,SOX17,PSCA,SPINK5,AC007349.5,DZIP1,IL18RAP,EVI2A,TIGIT,CDH1,TRPC4,PIGR,EPB41L2,TRAV13-2,TCF21,SYT13,MFAP4,CTA-363E6.2,SPINK1,COL5A2,COL19A1,SH2D1A,CD247,ACAP1,AKAP14,GFI1,CTD-2506J14.1,AGMO,LOXL1,FBLN2,MROH9,ODAM,CFAP126,CFAP52,PTH1R,DNAJB13,PRKG1,RP11-344P13.6,FAM13C,FIBIN,SCEL,CCDC60,CD93,SPRR1B,RP11-731D1.4,RP11-973H7.1,TMPRSS4,RGL4,LRP3,SLCO1C1,COX4I2,LINC00668,C1QTNF7,RP11-193M21.1,CTB-41I6.1,LMO7,IFI27,FAM216B,MUC4,SPRR2D,SERPINB3,RHOH,PLPP4,RP4-666F24.3,GSTM5,UCHL1,MS4A3,CBLN4,SEMA3F,ITLN2,GZMK,RUNDC3B,ADAMTS12,EYA4,RP11-321G12.1,PDE1C,COL5A1,RGS7BP,GPR176,C4ORF22,FAM83E,ELN,IL17F,AC093375.1,GZMH,ARHGEF38,DLC1,SLC38A4,CBLC,SPEF1,TPM2,SALL1,TMEM156,REG4,KLRC4-KLRK1,CFAP47,C1QTNF3,TRAV5,PRSS8,ANXA10,PTPRD,CD96,C11ORF70,TRAV27,CD6,KLRG1,TMEM244,TMPRSS2,IL2,ROPN1L,IL22RA1,ASPG,TMEM119,KB-173C10.1,KCNJ15,DRC1,NGEF,POU2F3,SLC9C2,MFAP5,RP11-445L6.3,STOX1,FCRL2,COL6A3,ECT2L,DUOX2,IL1R1,CEACAM5,CD28,C11ORF16,CLDN3,CFAP46,FGF14,AKNAD1,FNDC9,MYOC,CFAP77,SMOC2,CAMK4,FOXF1,SEZ6L2,C20ORF85,DOCK1,FKBP1A,MYL3,RP11-129I19.2,C4BPA,CASC1,ADAMTS4,RP11-222K16.2,TAGLN,PCGF2,TFF2,WDR72,CACNG6,CTD-2334D19.1,RGS11,EBF3,KLK7,CFAP57,VWA3A,SLAMF1,COL11A1,ASPN,RSPH10B,TNXB,BTLA,KLHDC7A,GALNT15,NMNAT2,RP11-10A14.5,C2ORF40,RP11-247C2.2,PXDNL,SIT1,SLIT3,IL12RB2,SPIRE1,MMP11,CFAP53,RP11-104L21.3,AOC1,AMN,IQUB,PRRX2,RP11-347J14.7,NTF3,SUGCT,MUC5B,FAM101A,ZNF831,IL7R,NCAM2,APOBEC3H,GLOD5,CORO1A,RERG,TRGC1,LMOD1,GPR4,LINC01615,DNAH5,TRAV14DV4,CHST6,TRDC,CD3G,GGT6,FBLN1,ZMYND10,FOXA2,ANGPT1,KCNJ16,GLT8D2,MGP,MEG3,LYPD8,HHEX,TTC29,LINC00675,SLFN12L,PDE5A,FAM3D,ANKUB1,RP11-275I4.2,ERN2,C22ORF23,HEATR9,IGLV5-48,CPXM1,TAGAP,ADIRF,ERICH3,RP11-297J22.1,MS4A8,ARHGAP9,ANO2,FGF1,RP11-395E19.6,C9ORF24,ITGA8,EPHA3,ADAMTSL2,SEMA3D,IL26,C9ORF135,KIR2DL4,LINC00922,LRRC73,CLIC2,MAB21L3,PLPPR1,FAM81B,GPRC5A,LGALS1,TRBV3-1,RP11-54A9.1,PGM5P4-AS1,GNGT1,MRLN,KIRREL,TJP3,RSPH10B2,ADAMTSL1,CCL15,KRT73,ISLR,PPFIA2,IQCD,AC097713.4,LRRC74B,TRAV30,RAD51AP2,DIO2,TLL1,RGPD4,MSMB,TRIM31,SGCA,SPARCL1,P2RY8,PDGFRA,WFDC1,SUSD5,AP1S2,IL22,AK7,EBF2,NXN,ST8SIA2,COL6A5,TRAV29DV5,PTPN22,CCL21,TRAV1-2,GFRA1,WISP2,AGR3,TRAV19,TRGC2,SAMSN1,SPOCK2,ZBED9,TTLL6,CTD-2008P7.9,TRDV1,LINC00402,SRPX,CKMT1B,KCNK1,DYNLRB2,PCDHB7,C11ORF88,C11ORF97,TRAV9-2,CAPSL,RP4-621F18.2,HOXB5,GAS1,HDC,F10,RP5-1172A22.1,LINC00861,MOV10L1,DRC7,NOS1AP,ROBO2,FXYD4,PRAP1,DNAH12,FAM162B,C1ORF87,CCM2L,S1PR4,CDH19,ICOS,PCDHB14,HSPB7,IGKV2D-28,SNTN,STOML3,NAV3,FBXO15,SPRR2A,CLEC2D,CSMD1,CXCL12,CARMN,FER1L6,AC006273.5,AC112715.2,AC195454.1,CXCR6,ROR2,S100P,SMCO3,EDIL3,MRGPRF,CCDC181,SULT1A1,GCSAM,CAPN9,RP11-87C12.5,LINC00563,LRRC15,SFTA1P,SCARF1,TNFRSF13C,AMY1B,RP11-598F7.6,NES,ARX,GRAMD2,MKX,HNF4A,DNER,FCER2,CD48,SPOCK1,ACKR1,NKG7,CYP4F11,KLRK1,FGL2,CD34,HTR1F,PPP1R42,DMBT1,WNT4,LDLRAD1,OPRM1,EPPIN,TMEM232,GAS2L2,ERICH5,PRRX1,SSTR3,KLK13,PLA2G4F,COL15A1,CD3E,TRAV17,SDR16C5,LINC00158,NKX6-1,TSPAN12,GABRD,TAGLN3,PGR,CEACAM7,STX19,RBBP8NL,RASAL3,SPINK8,PCLO,CFAP161,P2RY10,ITGB3,INMT,KRT72,DEFB4A,ENPEP,LINC00494,FMO1,C16ORF71,TRAV8-6,PDZRN3,TNFRSF13B,RP11-325F22.2,LINC00891,PEG10,RP13-870H17.3,CYP3A4,MYL2,IRGM,SPN,C2ORF50,CILP2,C10ORF107,PABPC5,LAMA4,SMIM24,FMO3,PCDHB15,SPATA4,IGFBP7,EOMES,GATA3,TSPAN19,ARMC3,GPC3,USH1C,RP5-887A10.1,TRBC1,MXRA5,TKTL1,SHISA2,RAB17,C5,MMP2,LMO2,ADH1C,GCNT3,KLK8,WNT2,LINC00384,RP11-693J15.5,FAM166B,ECM2,HSPB6,UNC5A,OLFML2A,CNN1,GZMM,COL4A1,TDRD6,ADAM33,RP11-973H7.4,PKNOX2,ADAMTS8,DUOXA2,ZAP70,LINC01559,SP140,SCGN,ANGPTL5,BMX,WISP1,RP11-493L12.7,VSIG2,PI3,PCP4,DES,CFAP73,CXORF36,KITLG,CXCR4,MUC3A,CTLA4,LINC01186,SLC51B,CCL11,ERBB3,TWIST2,KIR3DL3,MST1R,PDGFRB,IL21,GPR18,HEPH,NKX3-2,CCR4,VTCN1,RBP2,TEKT4,RP11-493L12.5,FCRL5,PAMR1,PTPRH,RHOJ,STMND1,ENKUR,COL6A6,AEBP1,CTB-133G6.1,SELENBP1,TSPAN1,GDF10,WDR78,SPARC,TEKT2,RP11-144A16.8,TRBC2,ALOX15,MSLN,SLC15A1,GRIP2,THY1,CCDC78,TENM3,CFAP43,SGIP1,VCAN,FSTL1,SELE,DLEC1,STAT4,CD3D,CCDC33,CTD-2544H17.1,TYRP1,ANKRD2,CHST4,SLC10A5,GHR,SAMD3,CD36,BHLHE22,LTBP1,KRT1,THEMIS,B3GALT5,AC092484.1,DIO3,AC006129.2,FLRT3,SPATA18,TRAV22,KLK12,TRAV12-2,HGD,CLIC6,ARHGAP39,FAM159A,BGN,CEACAM6,RP11-403B2.6,LINC01197,FAM198B,DYDC2,GTSCR1,RFX8,ANO1,PPP1R1B,HTRA3,LAMC3,RP11-175K6.1,ISLR2,FGD1,PRPH2,PRSS1,GPR20,TEK,RP11-569D9.5,XIRP1,COL4A2,RP11-314C16.1,CAV1,PCDH19,ALDH1L1,CNGA1,ASPA,TRBV27,DNAAF3,CCDC80,RSPO2,AC104024.1,FASLG,EFCAB6,HSPA12B,GPR174,CFAP206,U47924.27,TCTEX1D4,DAW1,EPS8L3,CLDN18,CST7,LINC00839,IGDCC4,EFCAB1,AC109642.1,TDRP,ALPPL2,YAP1,RP1-79C4.4,CDHR4,OMG,JAKMIP1,FAP,OLFM4,WI2-1959D15.1,NID2,TCEAL7,KLRC3,PTPRT,RP3-431P23.5,APLNR,LAMA3,PRR16,C7,CCDC74B,RCN3,EDNRA,IFI27L2,RASL12,MYLK,DNAH9,BCAS1,GSTA3,FOXF2,ATP10B</t>
+  </si>
+  <si>
+    <t>PMID:36787106</t>
+  </si>
+  <si>
+    <t>Ferri-Borgogno et al (2023) Tumor markers</t>
+  </si>
+  <si>
+    <t>Ferri-Borgogno et al (2023) Stroma markers</t>
   </si>
 </sst>
 </file>
@@ -783,21 +795,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,599 +823,613 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>98</v>
       </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>100</v>
       </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>102</v>
       </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>106</v>
       </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>108</v>
       </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>110</v>
       </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>112</v>
       </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D51" t="s">
         <v>114</v>
       </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-      <c r="D51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>121</v>
       </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
+      <c r="D55" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55221FA-378D-4C8B-AFAC-9652660EFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0654982-A836-49B4-A94B-AF7DD392CCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6250" yWindow="880" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,30 +60,18 @@
     <t>COL1A1,VIM,FN1</t>
   </si>
   <si>
-    <t>Cellular Senescence</t>
-  </si>
-  <si>
     <t>CDKN2A,CDKN1A,PLAUR,GPNMB</t>
   </si>
   <si>
     <t>PMID:35599179</t>
   </si>
   <si>
-    <t>Tumor-specific Keratinocyte (TSK)</t>
-  </si>
-  <si>
     <t>MMP10,PTHLH,FEZ1,IL24,KCNMA1,INHBA,MAGEA4,NT5E,LAMC2,SLITRK6,MMP1,SERPINE1,SERPINE2,IGFBP6,TNC,ITGA5,ECM1,SPINK6,TMSB10,KRT18,FST,ODC1,LAMB3,ITGA6,ACTB,ITGB1,SORL1,PFN1,EMP3,S100A10,EREG,LAMA3,PRKCDBP,OCIAD2,CTSV,ANXA3,S100A2,MET,CD99,TMSB4X,TIMP3,TPM4,NEFM,SCG5,SH3BGRL3,PLAU,PKM,CD63,LGALS1,BMP1,TNFRSF12A,ATP1B1,CFL1,MBOAT2,F3,TNFRSF21,CLIC1,CAP1,PDPN,SERINC2,ANXA1,BSG,DSG2,RHOC,KRT17,PDLIM7,PHLDA1,GLO1,LTBP1,TAGLN2,CD151,CAPN2,COL5A2,IGFBP2,P4HA2,COL17A1,PLEK2,AREG,ARPC1B,GLIPR1,S100A6,PLOD3,YWHAZ,CAV1,ADIRF,TGFBI,RBP1,FSTL3,C16orf74,UPP1,TNNT1,ANXA5,SDC1,PRDX5,MYL12A,GJB6,SLC7A8,RAB32,FXYD5,FSCN1</t>
   </si>
   <si>
-    <t>T Cell Exhaustion</t>
-  </si>
-  <si>
     <t>CD69,PDCD1,TGFB1,CTLA4,SPN,LAG3,EOMES,CXCR6,CD160,CD244,IL10,TIM3,TIGIT,KLRG1,TOX</t>
   </si>
   <si>
-    <t>Source: Alaina Dougall/Summer Student, DOI:10.1038/s41417-022-00495-w</t>
-  </si>
-  <si>
     <t>Fibrocyte</t>
   </si>
   <si>
@@ -93,66 +81,33 @@
     <t xml:space="preserve">(Alquicira-Hernandez and Powell, 2021; Korsunsky, et al., 2019; Reilkoff, et al., 2011). </t>
   </si>
   <si>
-    <t>Conserved_EMP_Signature</t>
-  </si>
-  <si>
     <t>TM4SF1,TACSTD2,JUN,MALAT1,SOX4,ELF3,SAT1,KLF6,HLA-A,ZFP36L1,ATP1B1,GPRC5A,JUNB,LGALS3,HLA-C,ZFP36,IER2,CD9,NDRG1,HSPA5,LDHA,PERP,B2M,HSPA1A,RHOB,SFN,IER3,CD55,DUSP1,NFKBIA,ZFP36L2,HSP90B1,S100A16,BTG1,FOSB,TIMP1,SH3BGRL3,ACTB,DDIT4,LAMB3,BST2,PHLDA2,ACTG1,SLC2A1,TNFSF10,ATF3,TSC22D1,CCND1,IL32,AHNAK,DSP,IGFBP3,ISG15,BCAM,HSP90AA1,IFITM1,LMNA,SQSTM1,APP,CALR,CD59,DST,LMO7,PKM,TNFRSF12A,C19orf33,CEACAM5,HLA-E,ITGB1,UBC,VEGFA,CD63,CEBPD,DNAJB1,VMP1,CALD1,CLDN7,CP,CTSD,PDZK1IP1,EZR,ID1,TPM1,WSB1,ERO1A,H1F0,SDC1,EMP1,FBXO32,FLNA,LGALS3BP,PGK1,SPINT2,TPM4,TSPAN8,PNRC1,ZFAS1,HSPA1B,RAB11FIP1,S100A4,MFGE8,PLAC8,SDC4,TAGLN2,F3,GSN,IFITM2,MAL2,CAV1,GADD45B,H3F3B,MYL9,SCD,SOD2,APLP2,CHI3L1,CXCL8,GDF15,IGFBP5,PMEPA1,PPP1R15A,SERINC2,PDIA6,CTSB,FHL2,GLUL,PRSS23,SFRP1,TPI1,ANXA3,CRIP2,CRYAB,HN1,ITM2B,LGALS4,PDIA3,ACTN4,CYBA,MYH9,PSAP,SYNGR2,EFNA1,HES1,MCL1,MUC13,P4HB,PLEC,RPN2,TIMP3,TMEM59,TXNIP,CLIC3,ERRFI1,MTDH,PDLIM1,SNCG,CXCL1,GABRP,ITGB4,MSLN,PRSS8,RNF213,TPM2,ADM,CAMK2N1,CRIP1,JUND,MARCKSL1,MX1,SLC16A3,TAGLN,TYMP,ARPC1B,HOPX,PLAUR,PTN,SDCBP2,SERPING1,TMC5,ACTN1,CEBPB,CST6,DSC2,FN1,GPNMB,KRT16,KRT23,MALL,MYL12A,PFN1,QSOX1,RND3,RPS21,RRBP1,TXNDC17,UBB,CCL20,CITED2,CLIC1,CTGF,DUSP6,IGFBP4,LAPTM4B,PLP2,PSMA7,TINAGL1,A2M,APOE,C1S,COL17A1,DYNLL1,HEBP2,HILPDA,HMGB3,ICAM1,ITGA2,KLF5,MUC5B,OCIAD2,PHLDA1,RHOC,TUBA1C,CD47,CTSE,FLNB,ITM2C,LAMC2,NR4A1,RTN4,SFTA2,TGFBI,APOD,ASS1,BHLHE40,BSG,C4orf3,CALM2,CDKN1A,FABP1,H2AFV,KLF4,MZT2B,NFIB,SLC25A37,SLC25A6,BAMBI,DNAJA1,FAM3C,FASN,GRN,HLA-DRB5,KLK10,LPCAT1,MYLK,NTRK2,PNISR,PRNP,PTPRF,RAC1,RAD21,SPARC,SRD5A3,XIST,CAV2,CCT5,CDH1,COL6A2,DHCR24,KLK6,LY6D,MGST3,NAMPT,NDRG2,NDUFA4L2,NDUFB9,PDLIM4,PPP1R14B,PSMB9,SCPEP1,SLC3A2,TAP1,TRPS1,ATP1A1,ATP6V0B,C2orf40,C6orf48,CA12,CCNL1,CD151,CPE,CYR61,EGLN3,FDPS,GOLM1,KRT20,KTN1,LSR,NFKBIZ,PABPC1,PI3,PSME2,PTTG1IP,REG4,SEPP1,SERPINB1,SOD3,SPINT1,SRRM2,SYT8,TSPAN13,ASPH,BIRC3,CAVIN1,CCT2,CLDN18,CLTB,CSTA,EEF2,EHF,FOLR1,HIST1H1C,PLA2G16,S100A13,SCEL,SSR4,TFF2,TMBIM1,TMBIM6</t>
   </si>
   <si>
-    <t>https://www.science.org/doi/10.1126/sciadv.abi7640</t>
-  </si>
-  <si>
-    <t>Malignant-specific EMP</t>
-  </si>
-  <si>
     <t>ACTN4,ANXA3,APLP2,ASPH,ATF3,ATP1A1,ATP1B1,BAMBI,BSG,C19orf33,CA12,CAMK2N1,CCND1,CCT2,CCT5,CD55,CD9,CDH1,CEACAM5,CEBPD,CLDN18,CLDN7,CLTB,COL17A1,CP,CST6,CTSE,CXCL1,DHCR24,DSC2,DSP,DST,EGLN3,EHF,ELF3,ERO1A,ERRFI1,F3,FABP1,FASN,FDPS,FHL2,FLNB,FOLR1,GABRP,GDF15,GOLM1,GPRC5A,H1F0,HEBP2,HILPDA,HIST1H1C,HMGB3,HSPA1B,HSPA5,ITGA2,ITGB4,KLF5,KLK10,KLK6,KRT16,KRT20,KRT23,KTN1,LAMB3,LAMC2,LAPTM4B,LGALS4,LMO7,LPCAT1,LSR,LY6D,MAL2,MGST3,MSLN,MTDH,MUC13,MUC5B,MZT2B,NDRG1,PDIA3,PDIA6,PDZK1IP1,PERP,PHLDA2,PI3,PLA2G16,PPP1R14B,PRSS8,PTPRF,PTTG1IP,QSOX1,RAB11FIP1,RAC1,REG4,RHOB,RHOC,RND3,RPN2,RRBP1,RTN4,SCD,SCEL,SDC4,SDCBP2,SEPP1,SERINC2,SFN,SFTA2,SLC2A1,SPINT1,SPINT2,SQSTM1,SRD5A3,SYNGR2,SYT8,TACSTD2,TFF2,TMBIM1,TMC5,TMEM59,TNFRSF12A,TNFSF10,TRPS1,TSPAN8,TUBA1C,TXNDC17,VEGFA</t>
   </si>
   <si>
-    <t>Progenitor exhausted T</t>
-  </si>
-  <si>
     <t>XCL1,MS4A4C,ID3,CXCL10,SLAMF6,TCF7,IL7R,TNFSF8,CTLA2A,LTB,CD9,SOCS3,JUN,GPR183,TRAF1,ITGB1,GM8730,EMB,GM10073</t>
   </si>
   <si>
-    <t>CD8+ exhaustion</t>
-  </si>
-  <si>
     <t>LAG3,HAVCR2,PDCD1,PTMS,FAM3C,IFNG,AKAP5,CD7,PHLDA1,ENTPD1,SNAP47,TNS3,CXCL13,RDH10,DGKH,KIR2DL4,LYST,MIR155HG,RAB27A,CSF1,CTLA4,TNFRSF9,CD27,CCL3,ITGAE,PAG1,TNFRSF1B,GALNT1,GBP2,MYO7A</t>
   </si>
   <si>
-    <t>CD8 Tumor-reactivity</t>
-  </si>
-  <si>
     <t>ENTPD1,ITGAE,PDCD1,TNFRSF9,TNFRSF4,CXCL13,MKI67,HAVCR2,LAG3</t>
   </si>
   <si>
-    <t>NeoTCR-CD4</t>
-  </si>
-  <si>
     <t>CXCL13,HMOX1,ETV7,ADGRG1,PDCD1,ENTPD1,CCDC50,TOX,CD4,TIGIT,TNFRSF18,NMB,MYL6B,AHI1,MAF,IFNG,LAG3,CXCR6,IGFLR1,DUSP4,ACP5,LINC01943,LIMS1,BATF,PCED1B,ITGAL,YPEL2,MAL,PPT1,ELMO1,MIS18BP1,TMEM173,ADI1,SLA,GALM,LBH,SECISBP2L,CTSB,C17orf49,CORO1B</t>
   </si>
   <si>
-    <t>Tumor Specific</t>
-  </si>
-  <si>
     <t>KRT86,RDH10,TYMS,HMOX1,GNG4,CXCL13,AFAP1L2,ACP5,MYO1E,LAYN,TNS3,TNFSF4,AKAP5,HAVCR2,ENTPD1,SLC2A8,AC243829.4,ZBED2,MCM5,CAV1,GOLIM4,TRAV21,VCAM1,PON2,MTSS1,CD38,TRBV11-2,MS4A6A,TOX2,CSF1,GALNT2,FXYD2,PLPP1,LMCD1,MYL6B,LAG3,HLA-DRA,IGFLR1,CCDC50,CD27,KIAA1324,CDKN2A,CD70,ABHD6,CTLA4,PDCD1,GEM,NUSAP1,TOX,CXCR6,NMB,HOPX,CLIC3,INPP5F,SNAP47,TSHZ2,HLA-DMA,SIT1,HLA-DRB1,TUBB,PYCARD,ADGRG1,HLA-DQA1,PRF1,HLA-DPA1,PTMS,CKS1B,HIPK2,CHST12,LSP1,FAM3C,SLC1A4,NUDT1,DNPH1</t>
   </si>
   <si>
-    <t>MANA-TIL</t>
-  </si>
-  <si>
     <t>HLA-DPB1,IFNG,MIR4435-2HG,TNS3,HLA-DPA1,ENTPD1,GEM,GZMA,CCL3,HLA-DQB1,HLA-DRB1,HLA-DQA1,HLA-DRB5,HLA-DQA1,HLA-DRB5,HLA-DRA,CXCL13</t>
   </si>
   <si>
-    <t>Virus Specific</t>
-  </si>
-  <si>
     <t>Oliviera, Wu, Nature 2021,RARA,GADD45B,C1orf21,AOAH,MATK,SATB1,MBP,ANTXR2,RORA,CCR7,ANXA1,BACH2,GLUL,TNFSF14,AUTS2,PERP,EPHA4,TCF7,SELL,MYC,IL7R,CD300A,ITGA5,GPR183,KLF3,S1PR1</t>
   </si>
   <si>
-    <t>Influenza TIL</t>
-  </si>
-  <si>
     <t>IL7R,GPR183,KLRC1,GPR15,ARL4A,PTGER2,AUTS2,RARA,PIK3R1,LYAR,NUDT11,KLF3,CCND3,CLDND1,YPEL5</t>
   </si>
   <si>
@@ -162,9 +117,6 @@
     <t>CD45,Adgre1,Lyz2</t>
   </si>
   <si>
-    <t>DOI:10.1172/jci.insight.126453</t>
-  </si>
-  <si>
     <t>Li (2019) M1 macrophage</t>
   </si>
   <si>
@@ -237,9 +189,6 @@
     <t>CD3D,CD3E,CD3G,CD4,CD2,CD7,TRAC,TRBC1,LAT</t>
   </si>
   <si>
-    <t>Zhang (2021) T_Cell_Exhaustion (human)</t>
-  </si>
-  <si>
     <t>NDFIP2,MT1L,MYO1E,RRM2,CTLA4,AC022506.1,BHLHE40-AS1,TOX,AFAP1,PKMYT1,MAP1LC3A,MAMLD1,BATF3,RN7SL743P,TRAJ13,TNIP3,RNU6-786P,MIR3142HG,AC009088.2,HLA-DMA,MSC,AIMP2,ASB2,ADGRG1,AC023794.3,IGLV2-14,AC090152.1,TRBV27,TRAJ54,ENO1P1,NMB,LDHAP2,CCR5,MIR7848,AC145207.3,AL590133.2,RPL17-C18orf32,MIR155HG,ST8SIA1,FAM184A,AC078927.1,BUB1B,RAD51AP1,TIAM2,AKAP5,TRAJ22,AC008982.1,TRAJ42,EPOP,RNU6-1016P,C3orf14,CD200R1,TOX2,CCL4L2,FAM111B,IKZF4,RF02195,SETBP1,TRAJ32,RF00017,SNORD36A,AC115102.1,FCRL3,SLC5A2,INPP5F,AP005263.1,LINC01480,AL022067.1,NCS1,AC133644.2,AC120057.2,SLC27A2,CLECL1,BLOC1S5-TXNDC5,SECTM1,HIST1H2AJ,BCAT1,ENTPD1,RNY3P14,MIR4426,CCL3L1,AL928654.2,FAM3C2,RF00019,AL512625.3,AC006111.1,RNU6-645P,CDCA3,MT-TG,MT-TL2,RF00019,RAMP1,AL157871.4,SNORA61,TRGJP2,SNORA77,MELK,TNFRSF9,ADAM28,DTHD1,AC080023.2,SLC2A8,AL355816.1,LAIR2,AL354798.1,PTGES3P2,RDH10,SNORA70,RNU6-268P,AL360012.1,ST20-MTHFS,PDCD1,AC099329.1,AC009093.8,RN7SL653P,AC092069.1,RF02196,AC011247.2,CADM1,PDGFA,TRBV7-9,PIF1,RF00019,MSC-AS1,MT-TR,RF00019,RF00413,AL158071.2,CHN1,RN7SL559P,HAVCR2,KRT86,RN7SL246P,CCL3,RF00019,MS4A6A,RNY4P34,RNU7-1,AC009244.1,MRPS36P1,RAB38,CD86,TIGIT,CAMK1,ETV1,HECTD2,TRAJ6,TNFSF4,AC020978.5,AC090844.1,MIR6764,AC073261.1,SCARNA22,AC006064.4,LINC00271,TRAJ52,AC027319.1,KIR2DL4,RF00019,DRAIC,TRAJ4,VCAM1,AC009656.1,MYO7A,ATP8B4,CD200,LMCD1,AC013460.1,TIMD4,LINC01943,MIR4647,ZBTB20-AS1,RF02105,AC017002.3,AL035604.1,HMOX1,GNG4,AC145207.2,LINC00515,IL13,MT-TK,ZBED2,TMEM155,AL158071.3,TRAJ3,SNORD15B,RF00397,AC243829.4,SNORD104,GLDC,LINC02341,SNORD11,AC090498.1,HMGB1P17,PMCH,FNDC9,PPIAP45,MIR155,CXCL13</t>
   </si>
   <si>
@@ -249,9 +198,6 @@
     <t>DOI:10.1101/2021.07.05.451111</t>
   </si>
   <si>
-    <t>Zhang (2021) T_Cell_Exhaustion (mouse)</t>
-  </si>
-  <si>
     <t>ZFP14,MIS18BP1,SIRT5,ZFP937,AC168977.2,CENPU,MOCS3,IFNG,GBP10,NRBF2,GM14419,GM25767,GM20939,GM2436,FCNA,TMEM14A,GM48720,PLOD2,TRAV8-2,GEMIN8,SEC22A,CIP2A,ARHGAP39,ARL10,GM20388,GM28911,TESK2,GM43778,GM14085,GM6741,GLCCI1,STK3,LITAF,TLCD2,GM3055,CCNE2,FEN1,RNF43,ANKRD46,B230354K17RIK,GPD2,IGHV3-6,APOO,ZFP41,NANP,GTSE1,MMD,RPH3AL,STX11,ZFP970,PRNP,MT-TP,TRAIP,GM15542,TOP2A,GM13835,D130040H23RIK,TRMT61B,GEM,MT-TN,HOOK1,EID2,KDELC1,GM47248,KIF18B,MS4A1,IRF8,CLSPN,CDCA8,HELLS,1700012D14RIK,NRIP1,ALCAM,CEP55,FMNL3,IFI44,DNAJC12,1110065P20RIK,MT-TC,GM22107,GM4814,4632427E13RIK,GM29094,TCRG-V1,FAU-PS2,ETAA1OS,MIR6357,MIR546,GM22247,CKAP2L,LNCPINT,UHRF1,GM14681,GM17494,CCNA2,GM26130,PLSCR1,GM44973,IGKV8-24,GM7609,PARD6A,PGM3,SKA3,GPATCH3,CCNF,CENPM,XKRX,CDH23,AC167249.1,GM25744,MRNIP,CSF1,DECR1,AC153498.1,2810408I11RIK,ABHD4,MTRF1,MARCKSL1,CD160,GM38329,CD38,CENPP,GM3604,TRAV17,8430429K09RIK,VAULTRC5,FANCI,IGHV1-55,SLC25A13,SHCBP1,KCNMB4,NCAPG2,CDKN3,LDHB,VSIG10L,RTL8C,GM15452,5330406M23RIK,HSPE1-PS2,IGKV1-135,KDM8,CENPE,GM45837,GM9887,IGLC3,TNFSF13B,TBC1D7,BIRC5,NARS2,GM10717,TRAV14-3,GM6644,TCRG-V3,MCOLN3,NEK6,GM36298,IGLV1,GM4924,GM3791,CDCA5,F730043M19RIK,RYK,TSGA10,NEIL3,2010204K13RIK,ID3,MTERF2,HACL1,NRARP,AIRN,GM6565,CAMKMT,GM14117,2810025M15RIK,RASGEF1B,TSPAN32,ADGRG1,PBK,FAM57A,GM36756,ZFP955A,SLC37A2,4930532G15RIK,PLK4,IGKV4-59,CENPS,GM14305,ITM2A,GM14434,GM49172,GZMC,GM12808,SGO1,3300002I08RIK,D630039A03RIK,CSTAD,GM39469,H3F3C,ABCG2,TIMP2,GM7805,CHN2,GM23419,IGLC1,TWSG1,AC183097.1,SUSD1,ARMC3,GM23245,ECT2,SNORA65,SPC24,SUPT3,TMEM147OS,ZFP119B,TRIP13,EXO1,MRM2,1700001O22RIK,E130308A19RIK,GM20689,GM14494,POU2AF1,IFT22,GM16283,GM12184,TLR7,SLC22A15,GM15725,MIR8104,EPOP,CCNB1,GM49384,EOMES,TIGIT,HSPA4L,GNG11,CENPI,GM21738,ABHD1,LCLAT1,KIF18A,TBC1D4,APOBEC2,E2F8,PLS3,HAVCR2,DTL,PPFIBP1,TMLHE,KIF11,SNORD22,SLFN10-PS,TSPAN6,HGS,BUB1,GM43058,COX11,GM13597,ESCO2,6720489N17RIK,TRAV6-5,SCRN2,CERS6,ZFP213,OSGIN1,AURKB,KIF2C,PVRIG,GM5931,ENPP5,TRAV7-5,ZFP599,RPL10-PS6,SLC25A29,RAD51,CRTAM,CCNB2,GM17173,GM26910,SERPINE2,MYB,GM33782,CKAP2,PBX4,GM4735,MAGEE1,GM26049,GM19196,LAG3,PDCD1LG2,GM15536,RAD51AP1,GM10226,SERP2,CCL3,TNIP3,GM11175,EEA1,NRN1,PFN2,GM11474,GM45236,MYBL2,IGHV6-3,BCL2A1C,KLRA7,SUSD2,TRAJ39,NEK2,CD200R1,MYPOP,GM17122,CENPF,CT010524.1,GAS2,GM10721,GM26527,D930028M14RIK,DYNLT1-PS1,PRSS2,NAT8F4,CD81,KLRA9,SRGAP3,GM14295,PDGFB,GM15706,GM10509,GM22579,GM37474,GM24539,CDC6,GM17764,MXD3,TRBV1,GM45778,GM26870,HMMR,EPHA3,AL731706.2,SPP1,MIR7058,AC164431.1,PXMP2,GM15443,GM10801,TMEM254C,GM45716,CELA1,2310031A07RIK,JDP2,GM13509,BC035044,GM10719,DEPDC1A,2810468N07RIK,GM10130,IGKV1-110,DUSP4,RPS11-PS1,GM10163,TMSB15L,SPO11,GCNT1,CPQ,GM16702,MT-TD,MIR8097,TROAP,GM49356,ATP1B1,2010109A12RIK,GM9803,AKR1E1,NME4,PTGER2,MT-TR,TJP2,6430590A07RIK,PPIC,FKBP10,ART2A-PS,PLXDC2,GM26860,MELK,ARL6,GM37376,UBASH3B,RAD54L,1810062O18RIK,KNL1,TRPS1,FBXL15,ADRB1,LRIG1,GM11998,CCDC142OS,5033430I15RIK,GM7666,GM24119,TCRG-C3,MT-TH,GM14048,TTK,TMEM273,BEND6,GM2800,TRAV15-1-DV6-1,BUB1B,MT-TK,EPHX1,GM14539,MIR22HG,GM7582,MIR6340,NINJ2,MAP6,SMS-PS,NUF2,HIST3H2BA,GM47586,TOX,SYNPO,POPDC2,CD244A,GM10108,6330403K07RIK,CAR2,ZFAND4,TNFRSF9,GM10718,BCAT1,A630023P12RIK,GM37560,TCRG-V7,NAIP5,GM6851,PACSIN1,EPCAM,GM14125,GM35363,HIC1,D630008O14RIK,POC1A,MIR1931,CD83,ENPP2,GM32687,GM12854,GM10169,CXCR5,P2RX7,KCNIP3,GM16550,KLRA3,PHACTR2,SPRY1,GM20402,IGHD,GM10180,FCRL1,XCL1,GM47308,ITGAD,KNTC1,GM10736,9630013D21RIK,NR4A2,GM44148,GM15433,MSL3L2,SNORA73B,MORN2,GM9790,GM15387,GM28942,GM17745,ICA1,4-Sep,MYO1E,1700011L03RIK,MIR155HG,B4GALT4,GM24451,GM10182,IKZF2,DUSP14,CXXC5,EGR2,PDCD1,CYTH3,GM7334,AC122217.2,GM10157,CAAA01147332.1,IZUMO1R,GM26377,FAM69B,PRR5L,ART3,RASGEF1A,HIST1H1B,GM11518,CCL1,4930417O13RIK,CD22,TNFRSF4,RGS16,GM10273,HIST1H2AP,GM10197,NEFH,CD200R2,GM11579,GPM6B,GLP1R,ST6GALNAC3,CD200,BACE2,A930002I21RIK,TG,IL1R2,2900026A02RIK,PERP,IGHG3,GM37401,HMGN3,ITIH5,COCH,SOSTDC1,GM11454,GM6637,ZBTB32,BC002163,GM12338,OCIAD2,IL21,GM4956,1700019D03RIK,TOX2,TNFSF4,NRGN,TRBV12-1,CCR6,PENK</t>
   </si>
   <si>
@@ -399,28 +345,82 @@
     <t xml:space="preserve">PMID:32946785 </t>
   </si>
   <si>
-    <t>DOI:10.1016/j.ccell.2023.03.009</t>
-  </si>
-  <si>
     <t>RP11-277P12.10,RP13-895J2.6,BNC1,MAGEA6,ISX,MAGEA3,RP13-614K11.2,CDH7,CALML3,A1CF,CLEC2L,ZNF280A,ANXA13,SOX14,GAL,RP11-626H12.2,FGB,HOXD11,CDX2,LINC00973,CTC-529P8.1,LINC01234,RP11-416I2.1,LCN15,ONECUT2,KCNF1,CPN1,CDK5R2,GLYATL1,RP1-140K8.5,RP11-221N13.3,PPP1R14D,RP11-244M2.1,CEL,RETNLB,PBK,LRRIQ4,ANLN,DEPDC1,RNF186,LINC01510,HMGA2,ITPKA,ACMSD,SYNGR4,RP11-734K21.5,UGT2B15,LINC00460,MYO3A,PITX1,PCSK1,CTD-2034I21.2,SPC25,RP11-54H7.4,PLK1,INSM1,UGT2B7,DLGAP5,TBX10,KRTAP4-1,PKMYT1,STRA6,MND1,AZGP1,CNTD2,AC005355.2,CDCA3,MET,SLC13A2,SLC38A3,GJB5,RRM2,CDC45,ADGRF4,PHGR1,KIF4A,NPTX2,FGL1,UBE2C,CALCA,GJB4,PCDHGA1,VIL1,CCNB2,FGFBP1,RP11-595B24.2,RAD54L,EPHA8,FAM25A,CRYBA2,CPLX2,AC011298.2,DIAPH3,AURKB,RP11-211G23.2,ENTPD2,BIRC5,HJURP,HMMR,DHRS2,GTSE1,SERPINB5,DBNDD1,PADI1,FAM83A,KRT6A,COL17A1,SPDEF,CTC-573N18.1,S100A2,IL37,DPP10,STC2,RP11-546K22.1,CDC25C,CTD-3010D24.3,SAA1,TK1,LY6D,XG,RP5-875H18.9,E2F8,HEPACAM2,DLL3,MKI67,SLC25A48,RNF183,KIF14,CDCA5,KLK5,CMBL,PHYHIPL,INHA,CENPA,MELK,BCO1,FABP1,PLOD2,LINC01511,GJC3,TMED6,AC007879.7,KIF12,SAA2,CHST1,GALNT14,MYBL2,SLC7A9,VSTM2L,GAS2,RP13-463N16.6,TYMS,KRT24,SAA4,KIAA0101,BEAN1,GRB14,ZFHX4,AGT,RP11-368L12.1,APCDD1L,S100A3</t>
   </si>
   <si>
     <t>PMID:35637521</t>
   </si>
   <si>
-    <t>Dohmen et al (2022) Tumor cells</t>
-  </si>
-  <si>
     <t>RGS1,TSPAN8,CD8B,CLDN8,PIFO,C1ORF189,BCHE,ELFN1,GJA1,RP11-329N22.1,FOXC2,CD200R1,CORIN,LIPH,ANKRD45,PID1,RP11-128M1.1,KIR3DL2,CD27,BMP3,MYL6B,FAM26E,DPT,TRBV28,STAB2,RPS6KA2,SYTL5,TMC4,CXCL17,EPHA10,COL1A1,SFTPA2,SOX2,LCK,RP1-60O19.1,KIAA1755,CLIP3,RP11-89K21.1,NOTCH3,RP3-446N13.5,RAB31,TMEM190,GZMA,PLCXD3,RP11-74E22.6,GSTA1,CHST9,GALNT16,GPRC5B,MASP1,BLK,TRGV8,ATP6V1C2,RASGRP1,STAP1,LRCOL1,NOX4,C5ORF49,TUBA4B,TOX3,KIR3DL1,EFNA1,C1ORF194,CHRNA6,NREP,TMEM54,EFEMP2,FLNC,CNTFR,SGCD,CTHRC1,GIP,KLK10,CFAP100,TM4SF4,CYP2C18,FILIP1,IGHD,EGFL6,CNTN4,CNIH2,WFDC10B,IGLV4-60,CATSPERD,ABCC8,RP11-290F5.1,B4GALNT2,LGI4,CTSE,RP11-106M7.1,LTB,TTC25,MUC13,PCDH18,HNF1B,GRHL2,HSPB2,C9ORF116,CYP4F22,LINC01436,NCR1,IFNG,TEKT1,PFN2,LINC01207,SEMA3B,CPXM2,DOK2,PSMA8,MAL2,EVI2B,CD19,SLC6A14,SDCBP2,GRM8,LRRC34,IGFL3,LINC01266,PI15,GIPC3,HSF5,SOWAHA,MIR4458HG,ADGRL4,NLRC3,C1ORF141,IGLV9-49,KCNJ8,SYDE1,SMIM6,LINC00544,CCDC74A,APCDD1,FOXQ1,CREM,RP11-18H21.1,CDHR2,CROCC2,MOXD1,LRFN5,RSPH14,FRZB,C17ORF82,FSTL4,HCST,ADGB,C22ORF15,LINC01612,FOXJ1,CCDC129,SAXO2,C4BPB,COX7A1,FOXS1,PYHIN1,COL1A2,CFAP58,LINC01133,OLFML1,CRISP2,DCDC2B,ITK,CILP,PLA2G2A,OR51E1,NCR3,LINC00844,MEOX2,PDIA2,RTP5,PLA2G5,TM4SF5,MS4A2,EGFLAM,FAM92B,IL2RB,ABLIM3,CCL2,PRRG3,KLRC1,REM1,DCN,EVA1A,TRGV3,BPIFA2,TRGV9,IL9R,TM4SF20,RHOBTB2,SCARA5,PLS1,HS3ST3A1,APELA,UNC5C,ZNF20,TRAV8-2,RSPH9,HAS2,GRAP2,OGN,CRTAM,C2ORF70,B3GNT6,PLN,ZNF683,CTD-2005H7.1,HSD17B6,C1QTNF2,CCL5,C1S,APOBEC4,TRAV26-1,TRAT1,SULT1A2,FNDC1,KIR2DL1,CD5,FCRL1,CFAP157,CTSW,CD7,LGALS4,LMO3,TMC5,SLA2,XCL2,COL12A1,CD24,EFCC1,TMEM47,KANK4,RP11-146I2.1,ELF3,CCDC114,CD37,AC092580.4,TRGV2,PCK1,SLC2A4,TBC1D10C,MSRB3,HSPB3,PRG4,NR0B2,AF127936.3,ARHGEF16,COL6A1,DLX5,FBN1,DIO3OS,RP11-291B21.2,RP11-240M16.1,WFDC2,STK32A,CD226,TNFRSF17,CALD1,TRAPPC3L,PIEZO2,C6,CCR7,CYTIP,WFDC6,GFRA3,SLPI,TMEM158,IKZF3,SLAMF6,S100A14,SOX18,UCN3,SRD5A2,TRAV16,DYDC1,GUCY1A2,TBX21,TRAV4,GJA4,LAX1,MISP,APOBEC1,PODN,ASS1,RP11-108M9.4,MYH14,PRELP,CFAP45,C3ORF70,RIMBP2,AL928768.3,KCNT2,IL4,MFAP2,PCOLCE,TM6SF2,ATP1A2,CDK2AP1,PIH1D3,STRN3,RP11-109E24.1,NOTUM,SULF1,CST4,FCMR,BEST4,NDRG2,LINC01571,HRCT1,PLA2G10,LRRC43,EFCAB10,IKZF1,DNAI1,DEUP1,TRAV2,VWA5B2,PLPPR4,PCDHB10,CFAP74,SIRPG,ANKRD66,MDH1B,C1R,LHFP,PCSK1N,ARNT2,RARRES2,PRF1,NKD2,GPRIN2,SLA,RAB25,WDR93,CTD-2171N6.1,FUT2,LRRC71,TCN1,FAM180A,COMP,MAP3K19,COL3A1,GUCA2A,CD8A,GPX8,TMIGD2,KIF6,CD53,APOH,CTC-436P18.3,KCNMB1,SLC16A2,GPT,ADGRA2,RAMP2,ABCA8,MXRA8,RP11-367G6.3,CDH11,TESPA1,CCDC175,KLRD1,SMIM22,PALM2,ZIC1,WDR38,CAPN8,CKMT1A,CD69,CFAP65,PRR15L,ARMC4,NRGN,ZNF80,KCNA3,PRDM6,ADAMTS5,KLRC4,C1ORF158,MRVI1,PPP1R14A,RP11-176H8.1,NPC2,GJA5,ITGA11,CTD-2147F2.1,RP11-462G2.1,RIBC2,RGS22,RP11-109M17.2,MEF2C,PROX2,XDH,CD40LG,LRRIQ1,RSPH4A,TRAV20,TMEM125,RP11-95H3.1,C9ORF47,DRD5,TRAV8-4,SVEP1,FHL5,OMD,PPP1R17,FAM43B,TEKT3,KBTBD12,RGN,CD52,SCGB2A1,RUNX1T1,RASEF,RP11-330A16.1,RP11-239A17.1,GLTPD2,PTPRD-AS1,KIF26B,CLDN4,SYTL3,NBAT1,JPH2,KLHL13,ITGBL1,PTK6,MS4A1,AKR1B10,IGSF9,TRGV10,AC002331.1,GAL3ST1,FCRL3,TRBV6-5,ANGPTL2,TSNAXIP1,PIH1D2,NOG,CCDC148,DNAH6,SYNPO2,NME5,LY9,RP11-342D11.3,WIF1,AC104820.2,MALL,HMGCLL1,CLSTN2,CLDN16,LAPTM5,RP11-125O18.1,LINC01317,NR2F1,GUCA2B,CDHR5,CTD-2626G11.2,AK8,RASSF10,ADAMTS16,RP11-620J15.3,TRAV36DV7,C7ORF57,HYDIN,GJC1,HHATL,ZBBX,FAM170B,MDK,RP11-428G5.5,PCDHB11,KRT16,SPSB4,SFTA2,C2ORF73,KLK11,TDGF1,PIP,COL6A2,C6ORF118,ELOVL2,SRGN,EPN3,SFTPD,CHRDL1,CST3,TRAV13-1,TRAF3IP3,SPRR3,LAT,RP1-142L7.8,LGR5,TEPP,CGN,ATP8A2,TRBV14,PROK2,PLA2G2F,CCNA1,HMGCS2,RERGL,LUM,TMEM184A,FIBCD1,TRBV2,BOC,CD160,PLEKHH2,CD164L2,PGLYRP2,SLC44A4,CLDN7,GML,RP11-522B15.3,CKB,AOX1,TNFSF8,SCNN1A,FOXL1,LINC00702,KIR2DL3,SPINK4,COL10A1,TFF1,FXYD3,TRAV6,CSDC2,LRRC46,HMCN1,CXCR5,CYP2B6,TRGV4,S100B,PTPRC,CCR6,CD2,MMP13,TMEM212,ART4,ROPN1B,RP11-753D20.3,TRAV23DV6,CYP4B1,VWF,MUC1,ADGRF1,PTN,VEGFD,SFRP4,AKR7A3,CAPS,FAM183A,VWA3B,LCN2,FCRLA,SPATA17,NGF,C1QTNF4,SLIT2,PCDH8,MYL9,RIBC1,SCN2B,TBX4,FAM83B,TRAV12-1,CERKL,MUC5AC,RP11-368I7.4,MAMDC2,GPX2,RIIAD1,TRBV6-2,CDH6,FABP6,LRCH2,BICC1,ONECUT3,FRMD6,TRAV1-1,TRBV5-1,SFRP2,TACC2,SYNDIG1,MTUS1,PACRG,AGTR1,COL14A1,PPIL6,PDZK1IP1,RP11-486M23.1,KLRC2,SV2B,TPPP3,RBPMS,GPR65,RSPH1,AGR2,PALM3,GATA6-AS1,ELF5,PDCD1,IL12RB1,LRRC17,LINC01117,RP11-879F14.2,MYRF,CD248,ZFPM2,FYB,EMILIN1,PLAC9,LTBP2,BMPER,HOXB8,HSD17B2,TRAC,ANTXR1,CST2,HOXD9,LRRC66,SEMA3A,SCN7A,ADGRF5,CD244,GPR171,HOXA2,ENOX1,TBX2,SPAG6,PALM,GRIN3B,POSTN,CCDC113,RP11-796E10.1,KLRB1,LIM2,C1ORF64,MORN5,LRRC18,XCL1,FCRL6,ANGPTL1,RP11-297L17.2,SELL,MEG8,ARL14,UBASH3A,VPREB3,ADAMTS3,CDH17,CGNL1,RP11-467J12.4,CASC9,CD79A,RNASE1,ADH1B,CACNA1C,KCNRG,THBS2,ENTPD8,AP000344.3,SERPINB4,SOX17,PSCA,SPINK5,AC007349.5,DZIP1,IL18RAP,EVI2A,TIGIT,CDH1,TRPC4,PIGR,EPB41L2,TRAV13-2,TCF21,SYT13,MFAP4,CTA-363E6.2,SPINK1,COL5A2,COL19A1,SH2D1A,CD247,ACAP1,AKAP14,GFI1,CTD-2506J14.1,AGMO,LOXL1,FBLN2,MROH9,ODAM,CFAP126,CFAP52,PTH1R,DNAJB13,PRKG1,RP11-344P13.6,FAM13C,FIBIN,SCEL,CCDC60,CD93,SPRR1B,RP11-731D1.4,RP11-973H7.1,TMPRSS4,RGL4,LRP3,SLCO1C1,COX4I2,LINC00668,C1QTNF7,RP11-193M21.1,CTB-41I6.1,LMO7,IFI27,FAM216B,MUC4,SPRR2D,SERPINB3,RHOH,PLPP4,RP4-666F24.3,GSTM5,UCHL1,MS4A3,CBLN4,SEMA3F,ITLN2,GZMK,RUNDC3B,ADAMTS12,EYA4,RP11-321G12.1,PDE1C,COL5A1,RGS7BP,GPR176,C4ORF22,FAM83E,ELN,IL17F,AC093375.1,GZMH,ARHGEF38,DLC1,SLC38A4,CBLC,SPEF1,TPM2,SALL1,TMEM156,REG4,KLRC4-KLRK1,CFAP47,C1QTNF3,TRAV5,PRSS8,ANXA10,PTPRD,CD96,C11ORF70,TRAV27,CD6,KLRG1,TMEM244,TMPRSS2,IL2,ROPN1L,IL22RA1,ASPG,TMEM119,KB-173C10.1,KCNJ15,DRC1,NGEF,POU2F3,SLC9C2,MFAP5,RP11-445L6.3,STOX1,FCRL2,COL6A3,ECT2L,DUOX2,IL1R1,CEACAM5,CD28,C11ORF16,CLDN3,CFAP46,FGF14,AKNAD1,FNDC9,MYOC,CFAP77,SMOC2,CAMK4,FOXF1,SEZ6L2,C20ORF85,DOCK1,FKBP1A,MYL3,RP11-129I19.2,C4BPA,CASC1,ADAMTS4,RP11-222K16.2,TAGLN,PCGF2,TFF2,WDR72,CACNG6,CTD-2334D19.1,RGS11,EBF3,KLK7,CFAP57,VWA3A,SLAMF1,COL11A1,ASPN,RSPH10B,TNXB,BTLA,KLHDC7A,GALNT15,NMNAT2,RP11-10A14.5,C2ORF40,RP11-247C2.2,PXDNL,SIT1,SLIT3,IL12RB2,SPIRE1,MMP11,CFAP53,RP11-104L21.3,AOC1,AMN,IQUB,PRRX2,RP11-347J14.7,NTF3,SUGCT,MUC5B,FAM101A,ZNF831,IL7R,NCAM2,APOBEC3H,GLOD5,CORO1A,RERG,TRGC1,LMOD1,GPR4,LINC01615,DNAH5,TRAV14DV4,CHST6,TRDC,CD3G,GGT6,FBLN1,ZMYND10,FOXA2,ANGPT1,KCNJ16,GLT8D2,MGP,MEG3,LYPD8,HHEX,TTC29,LINC00675,SLFN12L,PDE5A,FAM3D,ANKUB1,RP11-275I4.2,ERN2,C22ORF23,HEATR9,IGLV5-48,CPXM1,TAGAP,ADIRF,ERICH3,RP11-297J22.1,MS4A8,ARHGAP9,ANO2,FGF1,RP11-395E19.6,C9ORF24,ITGA8,EPHA3,ADAMTSL2,SEMA3D,IL26,C9ORF135,KIR2DL4,LINC00922,LRRC73,CLIC2,MAB21L3,PLPPR1,FAM81B,GPRC5A,LGALS1,TRBV3-1,RP11-54A9.1,PGM5P4-AS1,GNGT1,MRLN,KIRREL,TJP3,RSPH10B2,ADAMTSL1,CCL15,KRT73,ISLR,PPFIA2,IQCD,AC097713.4,LRRC74B,TRAV30,RAD51AP2,DIO2,TLL1,RGPD4,MSMB,TRIM31,SGCA,SPARCL1,P2RY8,PDGFRA,WFDC1,SUSD5,AP1S2,IL22,AK7,EBF2,NXN,ST8SIA2,COL6A5,TRAV29DV5,PTPN22,CCL21,TRAV1-2,GFRA1,WISP2,AGR3,TRAV19,TRGC2,SAMSN1,SPOCK2,ZBED9,TTLL6,CTD-2008P7.9,TRDV1,LINC00402,SRPX,CKMT1B,KCNK1,DYNLRB2,PCDHB7,C11ORF88,C11ORF97,TRAV9-2,CAPSL,RP4-621F18.2,HOXB5,GAS1,HDC,F10,RP5-1172A22.1,LINC00861,MOV10L1,DRC7,NOS1AP,ROBO2,FXYD4,PRAP1,DNAH12,FAM162B,C1ORF87,CCM2L,S1PR4,CDH19,ICOS,PCDHB14,HSPB7,IGKV2D-28,SNTN,STOML3,NAV3,FBXO15,SPRR2A,CLEC2D,CSMD1,CXCL12,CARMN,FER1L6,AC006273.5,AC112715.2,AC195454.1,CXCR6,ROR2,S100P,SMCO3,EDIL3,MRGPRF,CCDC181,SULT1A1,GCSAM,CAPN9,RP11-87C12.5,LINC00563,LRRC15,SFTA1P,SCARF1,TNFRSF13C,AMY1B,RP11-598F7.6,NES,ARX,GRAMD2,MKX,HNF4A,DNER,FCER2,CD48,SPOCK1,ACKR1,NKG7,CYP4F11,KLRK1,FGL2,CD34,HTR1F,PPP1R42,DMBT1,WNT4,LDLRAD1,OPRM1,EPPIN,TMEM232,GAS2L2,ERICH5,PRRX1,SSTR3,KLK13,PLA2G4F,COL15A1,CD3E,TRAV17,SDR16C5,LINC00158,NKX6-1,TSPAN12,GABRD,TAGLN3,PGR,CEACAM7,STX19,RBBP8NL,RASAL3,SPINK8,PCLO,CFAP161,P2RY10,ITGB3,INMT,KRT72,DEFB4A,ENPEP,LINC00494,FMO1,C16ORF71,TRAV8-6,PDZRN3,TNFRSF13B,RP11-325F22.2,LINC00891,PEG10,RP13-870H17.3,CYP3A4,MYL2,IRGM,SPN,C2ORF50,CILP2,C10ORF107,PABPC5,LAMA4,SMIM24,FMO3,PCDHB15,SPATA4,IGFBP7,EOMES,GATA3,TSPAN19,ARMC3,GPC3,USH1C,RP5-887A10.1,TRBC1,MXRA5,TKTL1,SHISA2,RAB17,C5,MMP2,LMO2,ADH1C,GCNT3,KLK8,WNT2,LINC00384,RP11-693J15.5,FAM166B,ECM2,HSPB6,UNC5A,OLFML2A,CNN1,GZMM,COL4A1,TDRD6,ADAM33,RP11-973H7.4,PKNOX2,ADAMTS8,DUOXA2,ZAP70,LINC01559,SP140,SCGN,ANGPTL5,BMX,WISP1,RP11-493L12.7,VSIG2,PI3,PCP4,DES,CFAP73,CXORF36,KITLG,CXCR4,MUC3A,CTLA4,LINC01186,SLC51B,CCL11,ERBB3,TWIST2,KIR3DL3,MST1R,PDGFRB,IL21,GPR18,HEPH,NKX3-2,CCR4,VTCN1,RBP2,TEKT4,RP11-493L12.5,FCRL5,PAMR1,PTPRH,RHOJ,STMND1,ENKUR,COL6A6,AEBP1,CTB-133G6.1,SELENBP1,TSPAN1,GDF10,WDR78,SPARC,TEKT2,RP11-144A16.8,TRBC2,ALOX15,MSLN,SLC15A1,GRIP2,THY1,CCDC78,TENM3,CFAP43,SGIP1,VCAN,FSTL1,SELE,DLEC1,STAT4,CD3D,CCDC33,CTD-2544H17.1,TYRP1,ANKRD2,CHST4,SLC10A5,GHR,SAMD3,CD36,BHLHE22,LTBP1,KRT1,THEMIS,B3GALT5,AC092484.1,DIO3,AC006129.2,FLRT3,SPATA18,TRAV22,KLK12,TRAV12-2,HGD,CLIC6,ARHGAP39,FAM159A,BGN,CEACAM6,RP11-403B2.6,LINC01197,FAM198B,DYDC2,GTSCR1,RFX8,ANO1,PPP1R1B,HTRA3,LAMC3,RP11-175K6.1,ISLR2,FGD1,PRPH2,PRSS1,GPR20,TEK,RP11-569D9.5,XIRP1,COL4A2,RP11-314C16.1,CAV1,PCDH19,ALDH1L1,CNGA1,ASPA,TRBV27,DNAAF3,CCDC80,RSPO2,AC104024.1,FASLG,EFCAB6,HSPA12B,GPR174,CFAP206,U47924.27,TCTEX1D4,DAW1,EPS8L3,CLDN18,CST7,LINC00839,IGDCC4,EFCAB1,AC109642.1,TDRP,ALPPL2,YAP1,RP1-79C4.4,CDHR4,OMG,JAKMIP1,FAP,OLFM4,WI2-1959D15.1,NID2,TCEAL7,KLRC3,PTPRT,RP3-431P23.5,APLNR,LAMA3,PRR16,C7,CCDC74B,RCN3,EDNRA,IFI27L2,RASL12,MYLK,DNAH9,BCAS1,GSTA3,FOXF2,ATP10B</t>
   </si>
   <si>
     <t>PMID:36787106</t>
   </si>
   <si>
-    <t>Ferri-Borgogno et al (2023) Tumor markers</t>
-  </si>
-  <si>
-    <t>Ferri-Borgogno et al (2023) Stroma markers</t>
+    <t>Ferri-Borgogno et al (2023) Tumor cell</t>
+  </si>
+  <si>
+    <t>Cohn et al (2023) Cellular senescence</t>
+  </si>
+  <si>
+    <t>Ji et al (2020) Tumor-specific keratinocyte</t>
+  </si>
+  <si>
+    <t>Alaina Dougall curation based on PMID:35794339</t>
+  </si>
+  <si>
+    <t>Chen et al (2023) T-cell exhaustion</t>
+  </si>
+  <si>
+    <t>PMID:34985957</t>
+  </si>
+  <si>
+    <t>Cook &amp; Vanderhyden (2022) Conserved EMP</t>
+  </si>
+  <si>
+    <t>Cook &amp; Vanderhyden (2022) Malignant-specific EMP</t>
+  </si>
+  <si>
+    <t>PMID:37001526</t>
+  </si>
+  <si>
+    <t>Pai et al (2023) Progenitor exhausted T</t>
+  </si>
+  <si>
+    <t>Pai et al (2023)  CD8+ exhaustion</t>
+  </si>
+  <si>
+    <t>Pai et al (2023)  CD8 tumor-reactivity</t>
+  </si>
+  <si>
+    <t>Pai et al (2023) NeoTCR-CD4</t>
+  </si>
+  <si>
+    <t>Pai et al (2023) Tumor specific</t>
+  </si>
+  <si>
+    <t>Pai et al (2023)  Virus specific</t>
+  </si>
+  <si>
+    <t>Pai et al (2023)  Influenza tumor-infiltrating lymphocyte</t>
+  </si>
+  <si>
+    <t>Pai et al (2023)  MANA tumor-infiltrating lymphocyte</t>
+  </si>
+  <si>
+    <t>Ferri-Borgogno et al (2023) Stromal cell</t>
+  </si>
+  <si>
+    <t>Dohmen et al (2022) Tumor cell</t>
+  </si>
+  <si>
+    <t>PMID:30990466</t>
+  </si>
+  <si>
+    <t>Zhang et al (2021) T-cell exhaustion (human)</t>
+  </si>
+  <si>
+    <t>Zhang et al (2021) T-Cell exhaustion (mouse)</t>
   </si>
 </sst>
 </file>
@@ -797,19 +797,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,21 +823,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -859,577 +859,577 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D32" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D51" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>99</v>
       </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>101</v>
       </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0654982-A836-49B4-A94B-AF7DD392CCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CB2EE-90F9-4BEA-910C-F29830FADFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
   <si>
     <t>ScoreType</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>mmu04979 KEGG Cholesterol Metabolism (mouse)</t>
-  </si>
-  <si>
     <t>ABCA1,APOA1,LPL,LCAT,LIPG,PLTP,LIPC,CD36,LDLR,NCEH1,SOAT1,SOAT2,APOC1,APOC2L,APOC2,APOH,ANGPTL3,ANGPTL4,ANGPTL8,SCARB1,SORT1,APOB,PCSK9,LDLRAP1,MYLIP,APOE,LRP1,LRP2,LRPAP1,LIPA,STARD3,VDAC1,VDAC2,VDAC3,TSPO,CYP27A1,VAPA,VAPB,NPC1,OSBPL5,NPC2,STAR,CIDEB,CYP7A1,ABCB11,ABCG5,ABCG8,APOA2,APOC3,APOA4</t>
   </si>
   <si>
     <t>Michael Salinas</t>
   </si>
   <si>
-    <t>mmu04310 KEGG Wnt Signaling Pathway (mouse)</t>
-  </si>
-  <si>
     <t>PORCN,WNT1,WNT2,WNT2B,WNT3,WNT3A,WNT4,WNT5A,WNT5B,WNT6,WNT7A,WNT7B,WNT8A,WNT8B,WNT9A,WNT9B,WNT10B,WNT10A,WNT11,WNT16,CER1,NOTUM,WIF1,SOST,DKK1,DKK2,DKK4,SERPINF1,SFRP1,SFRP2,FRZB,SFRP4,SFRP5,RSPO1,RSPO2,RSPO3,RSPO4,LGR4,LGR5,LGR6,RNF43,ZNRF3,FZD1,FZD7,FZD2,FZD3,FZD4,FZD5,FZD8,FZD6,FZD10,FZD9,LRP5,LRP6,BAMBI,APCDD1,CSNK1E,CCDC88C,DVL3,DVL1,DVL2,FRAT1,PEG12,FRAT2,CSNK2A1,CSNK2A2,CSNK2B,NKD1,NKD2,CXXC4,SENP2,SEMP2L2B,SEMP2L2A,GM9839,SEMP2L1,GSK3B,CTNNB1,AXIN1,AXIN2,APC,APC2,CSNK1A1,TCF7,TCF7L1,TCF7L2,LEF1,CTNNBIP1,CBY1,CHD8,SOX17,CTBP1,CTBP2,TLE7,TLE6,TLE1,TLE2,TLE3,TLE4,CTNND2,CREBBP,EP300,RUVBL1,SMAD4,SMAD3,MAP3K7,NLK,MYC,JUN,FOSL1,CCND1,CCND2,CCND3,CCN4,PPARD,MMP7,PSEN1,PRKACA,PRKACB,TRP53,SIAH1A,SIAH1B,CACYBP,SKP1,TBL1X,TBL1XR1,FBXW11,BTRC,CUL1,RBX1,GPC4,ROR1,ROR2,RYK,VANGL2,VANGL1,PRICKLE2,PRICKLE1,PRICKLE4,PRICKLE3,INVS,DAAM1,DAAM2,RHOA,ROCK2,RAC1,RAC2,RAC3,MAPK8,MAPK9,MAPK10,PLCB1,PLCB3,PLCB4,PLCB2,CAMK2D,CAMK2G,CAMK2B,CAMK2A,PPP3CC,PPP3CA,PPP3CB,PPP3R1,PPP3R2,PRKCA,PRKCB,PRKCG,NFATC1,NFATC2,NFATC3,NFATC4</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Csf1r,Cebpb,Cd274,Itga4</t>
   </si>
   <si>
-    <t>Han (2020) Fetal_epithelial_progenitor</t>
-  </si>
-  <si>
     <t>BEX3,STMN1,SOX4,LDHB,SKP1,SNRPE,ID3,SRP9,GSTP1,SRP14</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>ACD,ALMS1,ANAPC1,ANAPC15,ANAPC7,ANLN,ANP32B,ANP32E,ARHGAP11A,ASF1B,ASPM,ATAD2,ATAD5,ATP23,ATRIP,AUNIP,AURKA,AURKB,BARD1,BAZ1B,BIRC5,BLM,BORA,BRCA1,BRCA2,BRIP1,BTG3,BUB1,BUB1B,BUB3,CALM3,CASP8AP2,CCDC134,CCNA2,CCNB1,CCNB2,CCNE1,CCNE2,CCNF,CCP110,CCSAP,CCT3,CDC20,CDC23,CDC25A,CDC25B,CDC25C,CDC27,CDC45,CDC5L,CDC6,CDC7,CDCA2,CDCA3,CDCA4,CDCA5,CDCA7,CDCA8,CDK1,CDK19,CDK2,CDK4,CDK5RAP2,CDKN2C,CDKN2D,CDKN3,CDT1,CENPA,CENPE,CENPF,CENPH,CENPI,CENPJ,CENPK,CENPL,CENPM,CENPN,CENPO,CENPP,CENPQ,CENPT,CENPU,CENPW,CENPX,CEP120,CEP128,CEP135,CEP152,CEP162,CEP192,CEP295,CEP41,CEP44,CEP55,CEP57,CEP57L1,CEP72,CEP76,CEP78,CEP85,CEP89,CEP97,CETN3,CHAF1A,CHAF1B,CHEK1,CHEK2,CHTF18,CIT,CKAP2,CKAP2L,CKAP5,CKS1B,CKS2,CLSPN,CNTLN,CNTRL,CNTROB,CRLF3,CTC1,CTCF,CTPS2,DBF4,DBF4B,DCK,DCLRE1A,DCLRE1B,DCTPP1,DDIAS,DDX11,DEK,DHFR,DIAPH3,DLGAP5,DNA2,DNMT1,DONSON,DSCC1,DSN1,DTL,DTYMK,DUT,E2F1,E2F7,E2F8,ECT2,EME1,ERCC6L,ESCO2,ESPL1,EXO1,EXO5,FAM111A,FAM161A,FAM83D,FANCA,FANCB,FANCC,FANCD2,FANCE,FANCG,FANCI,FANCL,FANCM,FBXO5,FEN1,FIGNL1,FOXM1,FZR1,GEN1,GINS1,GINS2,GINS3,GINS4,GMNN,GMPS,GPSM2,GTSE1,HASPIN,HAT1,HAUS1,HAUS2,HAUS3,HAUS4,HAUS5,HAUS6,HAUS7,HAUS8,HIST1H1A,HIST1H1B,HIST1H1C,HIST1H1D,HIST1H1E,HIST1H2AB,HIST1H2AC,HIST1H2AE,HIST1H2AG,HIST1H2AH,HIST1H2AI,HIST1H2AJ,HIST1H2AK,HIST1H2AL,HIST1H2AM,HIST1H2APS4,HIST1H2BB,HIST1H2BC,HIST1H2BE,HIST1H2BF,HIST1H2BG,HIST1H2BH,HIST1H2BI,HIST1H2BJ,HIST1H2BK,HIST1H2BL,HIST1H2BM,HIST1H2BN,HIST1H2BO,HIST1H3A,HIST1H3B,HIST1H3C,HIST1H3D,HIST1H3F,HIST1H3G,HIST1H3H,HIST1H3I,HIST1H3J,HIST1H4A,HIST1H4B,HIST1H4C,HIST1H4D,HIST1H4E,HIST1H4F,HIST1H4I,HIST1H4J,HIST1H4K,HIST1H4L,HIST2H2AA4,HIST2H2AB,HIST2H2AC,HIST2H2BA,HIST2H2BF,HIST2H3A,HIST2H4B,HJURP,HMGB1,HMGB2,HPRT1,INCENP,INIP,INTS7,ITGB3BP,KATNAL1,KIAA0586,KIF11,KIF14,KIF15,KIF18A,KIF18B,KIF20A,KIF20B,KIF22,KIF23,KIF24,KIF2C,KIF4A,KIF4B,KIFC1,KNL1,KNSTRN,KNTC1,KPNB1,LBR,LIG1,LIG3,LIN54,LIN9,LMNB1,LMNB2,LRRCC1,MAD2L1,MAD2L2,MASTL,MBD4,MCM10,MCM2,MCM3,MCM4,MCM5,MCM6,MCM7,MCM8,MCMBP,MDC1,MELK,MGME1,MIS12,MIS18A,MIS18BP1,MKI67,MLH1,MMS22L,MND1,MRE11,MSH2,MSH5,MSH6,MTBP,MTHFD1,MYBL2,NASP,NCAPD2,NCAPD3,NCAPG,NCAPG2,NCAPH,NCAPH2,NDC1,NDC80,NDE1,NEDD1,NEIL3,NEK2,NPAT,NSL1,NSMCE4A,NUCKS1,NUDT15,NUF2,NUP107,NUP133,NUP155,NUP160,NUP188,NUP205,NUP35,NUP37,NUP43,NUP50,NUP85,NUP88,NUP93,NUSAP1,ODF2,OIP5,ORC1,ORC2,ORC3,ORC5,ORC6,PA2G4,PAICS,PARP1,PARP2,PARPBP,PBK,PCLAF,PCNA,PCNT,PDS5B,PFAS,PIF1,PIMREG,PKMYT1,PLK1,PLK4,POC1A,POC1B,POC5,POLA1,POLA2,POLD1,POLD2,POLD3,POLE,POLE2,POLE3,POLH,POLQ,POT1,PRC1,PRIM1,PRIM2,PRIMPOL,PRPS2,PRR11,PSMC3IP,PSRC1,PTTG1,RACGAP1,RAD18,RAD21,RAD51,RAD51AP1,RAD51B,RAD51C,RAD54B,RAD54L,RAN,RBBP8,RBL1,RCC1,RECQL4,REEP4,RFC1,RFC2,RFC3,RFC4,RFC5,RFWD3,RHNO1,RIF1,RMI1,RMI2,RNASEH2A,RNF168,RPA1,RPA2,RPA3,RRM1,RRM2,RUVBL2,SASS6,SFR1,SGO1,SGO2,SKA1,SKA2,SKA3,SLBP,SLC29A1,SLF1,SMC1A,SMC2,SMC3,SMC4,SPAG5,SPC24,SPC25,SPDL1,SPICE1,SSRP1,STAG2,STIL,STMN1,SUGT1,SUPT16H,TACC3,TCF19,TDP1,TERF1,TFDP1,TICRR,TIMELESS,TIPIN,TK1,TMEM107,TMPO,TOE1,TOP2A,TOPBP1,TPX2,TRIM28,TRIP13,TSN,TTF2,TTI1,TTI2,TTK,TUBA1B,TUBA1C,TUBB,TUBB3,TUBB4B,TUBE1,TUBG1,TUBGCP3,TYMS,UBE2C,UBE2S,UBE2T,UHRF1,UHRF2,USP1,USP37,VRK1,WDHD1,WDR62,WEE1,WRAP53,XRCC1,XRCC2,XRCC4,XRCC5,XRCC6,ZW10,ZWILCH,ACYP1,ALG10,ANAPC1P1,ANP32A,APOBEC3A_B,ARHGAP11B,ARHGAP19,ARHGEF39,ARL6IP1,ARL6IP6,ASH2L,BCL2L12,BCLAF1,BRD8,BRI3BP,C17orf53,C18orf54,C19orf48,C1orf112,C3orf14,C4orf46,C5orf34,C9orf40,CAMK4,CAPRIN1,CASP2,CBX1,CBX3,CBX5,CCDC138,CCDC15,CCDC150,CCDC18,CCDC34,CCDC77,CCHCR1,CCT2,CCT4,CCT5,CCT6A,CDCA7L,CDK16,CDKN2AIPNL,CHAC2,CIP2A,CMAHP,COPS3,CPSF3,CSE1L,CTCFL,DARS2,DCAF15,DEPDC1,DEPDC1B,DHX9,DLEU1,DLEU2,DMC1,EMC3-AS1,ERI1,ERI2,EXOSC5,EXOSC8,EZH2,FAF1,FAM111B,FAM122B,FAM72B,FARSB,FGFR1OP,FN3KRP,FOXRED1,G2E3,GLE1,GPN3,GSTCD,H2AFV,H2AFX,H2AFZ,HELLS,HLTF,HMGB3,HMGN2P5,HMMR,HNRNPAB,HNRNPD,HNRNPF,HNRNPL,HSPB11,HYLS1,IPO11,IPO4,IPO5,IPO9,IQGAP3,KCNQ5,KDM4D,KIAA1841,KPNA2,KPNA3,LRR1,LSM2,LSM3,LSM4,LY6K,LYRM7,MANEA,METTL4,MNS1,MPHOSPH9,MTFR2,MXD3,MYEF2,MYO19,NAE1,NAP1L4,NEMP1,NEMP2,NIF3L1,NR2C2AP,NRM,NSD2,PAAF1,PAQR4,PDE6D,PHF19,PHF7,PIGU,POLR2D,POLR3K,POP7,PPIH,PPP2R5D,PSIP1,RANBP1,RANBP6,RANGAP1,RIBC2,RNF26,RNF5,RPL39L,RPP30,RTKN2,RTTN,SAAL1,SAP130,SCML2,SEPHS1,SHCBP1,SLC19A1,SLC25A10,SLC25A11,SLC25A40,SLC38A5,SMCHD1,SMYD4,SPATA5,SPIN4,STRIP2,SUV39H1,SUV39H2,SUZ12,TAF9B,TBC1D31,TCEANC2,THAP10,THOC3,TMEM106C,TMEM209,TMPRSS11B,TNPO2,TRAIP,TRIM59,TROAP,TTLL12,UBALD2,UBE2G1,UBR7,UCHL5,WDR54,WDR76,XPO1,YEATS4,ZIK1,ZMYM1,ZNF100,ZNF107,ZNF138,ZNF184,ZNF273,ZNF367,ZNF43,ZNF681,ZNF695,ZNF714,ZNF724,ZNF730,ZNF738,ZNF788,ZNF826P,ZNF85,ZNF850,ZNF90,ZNF93,ZYG11A</t>
   </si>
   <si>
-    <t>https://academic.oup.com/jmcb/article/11/8/703/5188008</t>
-  </si>
-  <si>
     <t>Giotti (2018) S phase</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>S100B,BEX1,SCRG1,PRCP,GPM6B,SAT1,PLP1,PTPRZ1,SOX4,PTN,RIPPLY1,TTYH1,FABP7,NOVA1,BAMBI,MOXD1,FTL,PCSK1N,LHFP,GPM6A,CLU,ID3,MALAT1,BTG1,SPARC,IGFBP7,FGFBP3,TUBB2B,HLA-DRA,TIMP4,PRDX1,CA2,EIF1B,COL9A3,SERPINE2,ATP6V1G1,LRRN3,RAB13,CITED1,TSPAN6,RNF13,TAGLN3,NUDT4,NGFRAP1,MAP2,WBP5,PON2,C1orf21,PAPSS1,SPRY1,SOX2,ST13,ARL6IP5,PLAT,C4orf48,BEX4,TXNIP,PDHX,HOPX,SCD5,TMEM59,PLD3,EEF1A1,SERPINF1,ZFAND6,NDFIP1,SOX9,RND2,ITM2B,SYT11,CTSV,ASAH1,FTH1,APIP,IFI6,ARL5A,LINC01158,SH3BGRL,RAB9A,METRN,CNPY2,LYRM5,FAM181B,MFGE8,C4orf3,CNP,TUBA1A,CST3,MORC4,HIST1H2AC,PSAP,MAGED2,PLOD2,SCARB2,HEY1,LAMA4,TMEM66,VGLL4,CDH2,RBP1,CADM4,MARCKSL1,TSC22D1,FEZ1,LAMP2,BCHE,PLEKHB1,IGFBP5,RPAIN,SESN3,FCGRT,NLRP1,TLE1,IFITM3,PFN2,RPS27L,H3F3A,SGCB,ARMCX3,MLLT11,LIMCH1,ATP6V0E1,LINC00461,HLA-A,OLIG2,LAPTM4A,SAT2,ZKSCAN1,PNRC1,YPEL5,DNAJC1,SHISA4,MARCKS,CRIPT,LINC00511,WSB1,SLC44A1,ZNF428,MDK,EFHC1,TRAF4,DHRS7,EDNRB,RGS6,SOX6,LRRC4C,EIF3E,CIRBP,DECR1,COL11A1,CLDND1,TCEAL8,ZCCHC17,IGBP1,LYPD1,SMIM14,QKI,EIF4A2,PKM,CMC2,RPSA,RASD1,ALDOA,TSPAN9,CTNNAL1,MIS18A,TBX1,NOG,HSP90AB1,RMI2,EDN1,VOPP1,CCT6A,ORC6,FRMD4A,RGCC,SGOL2,DRAP1,SNRPD1,SIVA1,HSP90B1,FLNA,CYB5B,PFKP,PPP1R14B,TPM3,PRKDC,HN1,SSR3,HSP90AA1,ARPC5,SNRPA1,IDI1,H2AFX,PA2G4,CEP55,KNSTRN,NME1,ANLN,CNTN1,NDUFA12,ARPC2,EIF1AX,DNMT1,AURKB,TMPO,GTF3A,VRK1,TMEM237,CAP1,RRM1,PPA1,TPM1,MMAB,CHCHD2,ADA,PDCD5,HMGB3,CENPE,CENPV,CCDC34,NUDT1,SQLE,CENPU,CDC42EP3,EVA1A,SLC25A5,MCM7,CARHSP1,NT5E,DHFR,ACOT7,POLD2,LMNB1,TXN,PLAUR,IL32,DCTPP1,ARHGAP29,FAM64A,YWHAH,ANXA3,MRPL52,SCG2,ITGB1BP1,PRELID1,ECE1,CKAP2,MZT2B,ACTG1,MZT1,KIF4A,TROAP,HPCAL1,SGOL1,NUF2,HNRNPA2B1,DHCR24,CLSPN,SNRNP25,MGLL,INSIG1,ESCO2,SRPX,GTSE1,EXOSC8,WDR1,SH3BP5,ANKRD1,SDF2L1,DCXR,PTRF,SRSF3,DEPDC1,TPST2,SPC25,CSRP2,PCNA,KIF20B,CCT5,CYCS,ACTB,CACYBP,TMEM158,MRPL15,DLGAP5,CCDC109B,SMC2,EZR,MYH9,S100A10,GMNN,RPA3,USP1,LSM4,RNASEH2A,STRA13,SLC9A3R2,LOXL1,PMAIP1,ACTN1,S100A16,DNAJC9,AURKA,PFDN2,TPM4,TUBB6,FDFT1,HPRT1,POPDC3,CYR61,LGALS3,PRSS23,CCNA2,PSME2,CENPM,COTL1,PTMA,CCL2,DUT,TYMS,ENO1,FDPS,TMSB4X,GINS2,HSPD1,SRSF2,AKAP12,SRSF7,PRC1,GJB2,RGS20,RPL22L1,KPNA2,GGH,MYL9,CENPA,PFN1,DLG1,SNRPB,CDCA3,LDHA,DTYMK,PRDX6,RAN,ASPM,CCNB2,CLIC1,NMB,DKK1,DEK,SPP1,TMEFF2,CDKN3,EIF4EBP1,RANBP1,TUBB,TAGLN2,CDC20,CENPN,TPX2,EBP,CENPW,ZWINT,HMGB1,LMNA,STMN1,MKI67,DCBLD2,UBE2S,UBE2T,PBK,TK1,MAD2L1,TOP2A,SMC4,PLP2,CKS1B,PHLDA2,ACAT2,CALM2,CKS2,TAGLN,RRM2,GCHFR,TUBA1B,PLAU,C12orf75,NUSAP1,CCNB1,BIRC5,CCND1,HMGN2,FHL2,CDK1,TUBB4B,HIST1H4C,H2AFZ,HMGA1,KIAA0101,PTTG1,CENPF,HMGB2,UBE2C</t>
   </si>
   <si>
-    <t>DOI:10.15252/msb.20209522</t>
-  </si>
-  <si>
     <t>O’Connor (2021) 2. G1</t>
   </si>
   <si>
@@ -421,6 +406,30 @@
   </si>
   <si>
     <t>Zhang et al (2021) T-Cell exhaustion (mouse)</t>
+  </si>
+  <si>
+    <t>ADA,C1QTNF7,CACNA2D2,CELF2,CLOCK,DIXDC1,EPHX1,FAT1,GIMAP5,HERPUD1,ICOS,KCNMA1,MICU3,NAALAD2,NAP1L5,NRXN1,OPHN1,PBXIP1,RBM38,RPS6KA5,SEC61G,SFTPC,SLC25A42,</t>
+  </si>
+  <si>
+    <t>He et al (2022) Circadian-related genes</t>
+  </si>
+  <si>
+    <t>mmu04979 KEGG cholesterol metabolism (mouse)</t>
+  </si>
+  <si>
+    <t>PMID:35436363</t>
+  </si>
+  <si>
+    <t>mmu04310 KEGG Wnt signaling pathway (mouse)</t>
+  </si>
+  <si>
+    <t>Han (2020) Fetal epithelial progenitor</t>
+  </si>
+  <si>
+    <t>PMID:30452682</t>
+  </si>
+  <si>
+    <t>PMID:34101353</t>
   </si>
 </sst>
 </file>
@@ -506,13 +515,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -795,21 +806,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,613 +834,625 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D52" t="s">
         <v>91</v>
       </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>96</v>
+      <c r="D56" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CB2EE-90F9-4BEA-910C-F29830FADFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6AB1E9-17A3-44B6-8B2D-FF226413F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>ScoreType</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>PMID:34101353</t>
+  </si>
+  <si>
+    <t>Chae et al (2018) EMT-gene signature</t>
+  </si>
+  <si>
+    <t>PMID:29440769</t>
+  </si>
+  <si>
+    <t>CDH1,CDH2,DSP,FN1,FOXC2,GSC,ITGB6,MMP2,MMP3,MMP9,SNAI1,SNAI2,SOX10,TJP1,TWIST1,VIM</t>
   </si>
 </sst>
 </file>
@@ -806,21 +815,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -846,612 +855,624 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>91</v>
       </c>
     </row>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6AB1E9-17A3-44B6-8B2D-FF226413F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8706236F-C508-4109-8883-A0324609FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>ScoreType</t>
   </si>
@@ -439,6 +439,18 @@
   </si>
   <si>
     <t>CDH1,CDH2,DSP,FN1,FOXC2,GSC,ITGB6,MMP2,MMP3,MMP9,SNAI1,SNAI2,SOX10,TJP1,TWIST1,VIM</t>
+  </si>
+  <si>
+    <t>SignatureTag</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
 </sst>
 </file>
@@ -815,21 +827,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,8 +854,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="D2" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>135</v>
       </c>
@@ -866,8 +884,11 @@
       <c r="D3" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -880,8 +901,11 @@
       <c r="D4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -892,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -903,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -914,7 +938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -925,7 +949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -936,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -947,7 +971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -958,7 +982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -969,7 +993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -980,7 +1004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -991,7 +1015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1002,7 +1026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1013,7 +1037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1035,7 +1059,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1068,7 +1092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1142,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1132,7 +1156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -1154,7 +1178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1198,7 +1222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -1234,7 +1258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +1269,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1267,7 +1291,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1278,7 +1302,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1300,7 +1324,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1311,7 +1335,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1322,7 +1346,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1333,7 +1357,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1355,7 +1379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -1366,7 +1390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -1388,7 +1412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -1399,7 +1423,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -1410,7 +1434,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -1421,7 +1445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -1432,7 +1456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -1443,7 +1467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -1454,7 +1478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1465,7 +1489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>98</v>
       </c>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8706236F-C508-4109-8883-A0324609FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A1435-C150-4F79-9FBE-61BB1E8FC905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>ScoreType</t>
   </si>
@@ -444,13 +444,94 @@
     <t>SignatureTag</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,</t>
+    <t>Yuan et al (2019) Angiogenesis</t>
+  </si>
+  <si>
+    <t>ACVRL1,JAG1,ANGPT1,ANGPT2,CD34,CDC42,MAPK14,TYMP,EDN1,EFNB2,EGR3,EPHB4,PTK2B,FGF2,FGFR1,VEGFD,FOXC2,FLT1,FLT4,FN1,GPLD1,NR4A1,ID1,ITGA5,ITGAV,ITGB1,KDR,LOXL2,MMP14,NOTCH1,PDGFA,PDGFRB,PGF,PIK3CA,PTGS2,PTK2,ROBO1,SHC1,SRF,TAL1,TDGF1,TEK,VAV2,VEGFA,VEGFC,FGF18,NRP1,SEMA5A,RAMP2,CIB1,ESM1,JMJD6,HEY1,ADGRA2,GREM1,SRPX2,SOX18,PARVA,RNF213,E2F8,RSPO3,OTULIN,E2F7,CCBE1,BMPER,NRARP,TNFAIP6,VCAN,SPP1,CCND2,PIK3R1,STC1,JAG2</t>
+  </si>
+  <si>
+    <t>PMID:30329142</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Apoptosis</t>
+  </si>
+  <si>
+    <t>APAF1,ATF4,ATM,BAK1,BID,BOK,BRCA2,CASP2,CASP4,CASP9,DAPK3,DDIT3,E2F2,EP300,GSN,IFI16,INHBA,KRT8,LGALS9,NFATC4,P2RX7,PMAIP1,POLB,PPP2R1B,PPP2R5C,SORT1,SKIL,STK3,STK4,TIMP3,TNFRSF1A,TNFRSF1B,TP53BP2,DYRK2,CRADD,BCL10,AIFM1,BCL2L11,DNM1L,BCAP31,SIVA1,MLLT11,RIPK3,SNW1,PPP1R13B,PHLDA3,NUPR1,BBC3,CIDEB,TNFRSF21,PYCARD,CDIP1,G0S2,SHISA5,TNFRSF12A,WWOX,DDIT4,USP28,MOAP1,AEN,TMEM109,APOPT1,BMF,DAB2IP,DEDD2,ST20</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Cell Cycle</t>
+  </si>
+  <si>
+    <t>ANLN,ANP32E,ATAD2,AURKA,BRIP1,CASP8AP2,CBX5,CCNA2,CCNB2,CCND1,CCNE1,CCNE2,CDC25C,CDC45,CDC6,CDCA2,CDCA3,CDCA8,CENPA,CENPE,CHAF1B,CKAP2L,CKAP5,CKS1B,CKS2,CLSPN,DHFR,DLGAP5,DSCC1,DTL,ECT2,EXO1,FEN1,GAS2L3,GINS2,GTSE1,HELLS,HJURP,HMMR,KIF11,KIF23,KIF2C,LBR,MCM4,MCM5,MCM6,MKI67,NASP,NCAPD2,NDC80,NEK2,NUF2,NUSAP1,PCNA,POLA1,POLD3,PRIM1,PSRC1,PTTG1,RAD21,RAD51AP1,RANGAP1,RFC2,RFC4,RPA2,RRM1,RRM2,SLBP,SMC4,TACC3,TIPIN,TMPO,TOP2A,TTK,TUBB4B,TYMS,UBR7,UHRF1,UNG,USP1,WDR76,POLA2,GCLM,HMGB3,DEPDC1B,PRR11,NUCKS1,NUP37,UBE2T,ORC6,CENPM,VRK1,CDC25B,FAM83D,ASF1B,GRPEL1,RFC5,SRSF3,MND1,ZWINT,TUBG1,ENOSF1,RAN,RFC3,E2F5,AKIRIN2,TROAP,BORA,PIF1,FANCI,LYAR,CDCA5,DSN1,CCNF,CDC25A,SAP30,CDCA7L,INTS8,MCM7,CHAF1A,PBK,DTYMK,APEX2,KIF5B,SHCBP1,ZWILCH,KPNA2,H2AFX,H1F0,TUBB,HIST1H4C,PRC1,CENPW,MRPS18B,MZT1,KIFC1,KIF22</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Differentiation</t>
+  </si>
+  <si>
+    <t>ABL1,ACVR1,ADA,AGT,AKT1,ANXA1,ATOH1,ATP2B2,ATP7A,AXL,BCL2,BCL3,PRDM1,BMP2,BMP6,BRAF,CASP8,CAV3,RUNX2,RUNX1,CCNB1,CD86,CDK1,CDC42,CDH2,CEBPA,CEBPB,CREB1,MAPK14,CSF1,CSF1R,CSF2,DRD1,EDN3,EDNRB,EPHA2,EMX1,EP300,ERBB4,ERCC2,FGF8,FGFR1,FGFR2,FOXC2,FLT3LG,MTOR,GATA1,GATA4,GATA6,GDNF,GNAS,HDAC2,NCKAP1L,NRG1,HHEX,HIF1A,HMGB1,FOXA1,HOXA5,IGF1,IL2,IL4R,IL11,IL12B,IL15,ILK,INSM1,IRF4,JAG2,JUN,JUNB,KIT,LAMB2,LEP,LGALS1,LGALS9,LHX1,LIF,LMNA,LYN,SMAD4,MEF2A,MEF2C,KITLG,MMP14,MYF5,MYF6,MYH9,MYO7A,MYOD1,MYOG,NFATC2,NFIB,NTRK1,NTRK2,PAFAH1B1,PAX2,PF4,PITX2,PLS3,POU4F3,PPARG,MAPK3,MAP2K1,PROX1,PSEN1,PTGER4,PTN,PTPN11,PTPRZ1,RAC1,RAG1,RB1,RELB,RXRA,CCL19,SHOX2,SNAI1,SOD1,SOX4,SOX10,SOX11,SP3,SPI1,SRF,STAT5B,STK11,SYK,TAL1,TGFB2,TGFBR2,THRA,NKX2-1,TRAF6,TSC1,VEGFA,WNT7A,WNT8A,WNT11,WT1,ZAP70,EOMES,SEMA7A,TNFSF11,TP63,TNFSF9,FADD,NRP1,PROM1,SLC9A3R1,ATG5,SLC4A7,MAML1,ZEB2,TSPAN2,SEC24B,BATF,ZBTB1,KDM1A,KDM6B,HEY2,SCRIB,TENM4,BLOC1S6,FOXP1,BMP10,IL20,CDON,WDPCP,LEF1,IL23A,CLIC5,DLL4,TMEM100,MCOLN3,SOX6,MESP1,CYP26B1,FAM20C,OVOL2,SAV1,SEMA4A,BCL11B,NKAP,PDZD7,WNT5B,DCSTAMP,GDPD5,SLITRK6,MYLK3,TMC1,OCSTAMP,IL31RA,IL23R,GDF7,NKX2-3,STRC,ARX,GSX2,LHFPL5,ATP11C</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) DNA damage</t>
+  </si>
+  <si>
+    <t>BRCA1,MRE11,FOXN3,HIPK2,SP100,PSME4,RPS6KA6,TP63,GTSE1,PPP2R5C,TP73,CNOT4,DNAJA1,BAX,UIMC1,AURKA,CNOT3,PCBP4,TFAP4,E2F1,RGCC,RBL2,NBN,GML,BABAM1,CASP2,CDK5RAP3,CCND1,FOXM1,CDKN1B,CNOT2,ING4,CNOT6,TFDP2,NEK11,PSMD14,ARID3A,MAD2L2,GADD45A,SYF2,RPA2,PLAGL1,RBBP6,CDK2,CDKN1A,SOX4,CNOT1,PRMT1,BCL2L2,PCNA,RBM38,CCNB1,TAOK3,MDM2,CNOT6L,BRCA2,PML,FANCI,TP53,PMAIP1,CARM1,DTL,RPS27A,CNOT9,CCNA2,PLK2,TNKS1BP1,RPS3,ATM,CHEK1,HMGA2,UBC,CENPJ,XPC,CNOT8,BABAM2,CDC25C,CNOT11,BTG2,ZNF385A,USP1,ABRAXAS1,RNF168,SPIDR,E2F7,CRADD,CDK1,UBB,TRIAP1,RAD9A,KAT5,PLK3,ATR,SFN,HIC1,PIDD1,UBE2N,NPM1,CNOT10,CHEK2,FOXO4,MUC1,BRCC3,BLM,TFDP1,MDM4,CNOT7,E2F4,UBA52,PRKDC</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) DNA repair</t>
+  </si>
+  <si>
+    <t>RAD52,POLR2J,LIG3,REV3L,BRCA1,ERCC1,MNAT1,MRE11,RFC1,TDP1,RRM2B,ERCC8,RFC2,POLD1,NTHL1,TP53BP1,POLB,XRCC1,XAB2,POLD3,XRCC5,RIF1,PALB2,SIRT1,POLR2E,POLR2F,POLE2,APEX1,POLI,POLA1,POLR2C,MPG,NBN,ERCC2,POLR2I,LIG1,RPA3,POLD2,RAD51C,GTF2H1,RAD51AP1,GTF2H3,RFC5,FANCE,RAD50,OGG1,FANCL,MAD2L2,RPA2,RAD23B,POLK,SMUG1,WRNIP1,XRCC3,MBD4,POLN,RPA1,PCNA,MUTYH,RFC3,CDK7,CCNH,DDB2,REV1,BRIP1,XPA,TDG,BRCA2,TP53,PARP1,RPS27A,POLR2D,FANCD2,CETN2,POLR2K,SSRP1,ATM,XRCC4,CCNO,XPC,FANCC,ERCC3,POLR2H,RFC4,HMGB2,WRN,POLL,ALKBH3,DDB1,POLR2G,FEN1,UBE2V2,MGMT,POLH,EXO1,LIG4,ATR,POLD4,ERCC4,POLE,TOP3A,UBE2N,FANCB,RAD51B,FANCF,RAD51D,FANCA,FANCM,H2AFX,ALKBH2,HMGB1,XRCC6,XRCC2,BLM,GTF2H4,FANCG,UBA52,PRKDC,GTF2H5</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) EMT</t>
+  </si>
+  <si>
+    <t>BGN,CDH11,CDH2,COL1A2,COL3A1,COL5A2,CTGF,DDR2,ECM1,FAP,FBLN5,FBN1,FOXC2,FSTL1,GSC,HAS2,IGFBP4,MMP1,MMP2,MYL9,NR2F1,PCOLCE,POSTN,PRRX1,PTX3,RGS4,SNAI1,SPOCK1,TAGLN,TUBA1A,TWIST1,VIM,WNT5A,ACTA2,BRCA1,SERPINH1,CENPA,COL1A1,COL4A1,COL6A2,VCAN,CTSB,DAB2,DCK,FBLN2,FN1,GAS1,HIF1A,HMMR,TNC,ITGAV,LUM,MCM3,MCM7,MKI67,MMP14,NT5E,ODC1,PDGFRA,PLAUR,PPIC,HTRA1,RBL1,CXCL6,SDC1,SDCBP,TIMP1,ENC1,TUBB3,PLK4,ORC6,ANLN,CAMK2N1,ENOPH1,CD44,LOXL2,TGFBR3,WNT16,WNT2,TGFBR1,FGF8,EPB41L5,OLFM1,HEY2,LEF1,ERG,HEY1,TMEM100,EFNA1,S100A4</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Hypoxia</t>
+  </si>
+  <si>
+    <t>PLIN2,ADM,ADORA2B,AK4,ALDOC,ANG,ATF3,BNIP3,BNIP3L,CA9,CA12,CAV1,CCNG2,KLF6,DUSP1,EFNA1,ENO2,F3,FOS,NR3C1,GYS1,HIF1A,HK1,HK2,HMOX1,IGFBP3,IL6,JUN,LDHA,LOX,MIF,MXI1,NFIL3,P4HA1,SERPINE1,PAM,PDGFB,PDK1,PFKFB3,PFKFB4,PFKP,PGF,PGK1,PGM1,PLAUR,PLOD2,PPP1R3C,RNASE4,SAT1,SLC2A1,SLC2A3,SPAG4,STC1,TGFBI,TPI1,VEGFA,VLDLR,CXCR4,PPFIA4,BHLHE40,KLF7,STC2,SAP30,P4HA2,STBD1,AKAP12,CITED2,NDRG1,TXNIP,ZNF292,JMJD6,MAFF,FAM162A,HILPDA,ERO1A,ANGPTL4,DDIT4,EGLN1,KLHL24,TMEM45A,KDM3A,ZNF395,EGLN3</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Inflammation</t>
+  </si>
+  <si>
+    <t>BMP2,CD6,CEBPB,CCR7,CSF1,F3,F12,FCER1G,B4GALT1,FFAR2,CXCL1,CXCL2,CXCL3,ICAM1,IL1A,IL1B,IL6,CXCL8,IL12B,TNFRSF9,IL18,CXCL10,IRAK2,KLKB1,NFKB1,NFKB2,OLR1,OSM,SERPINE1,MAP2K3,PTGS2,PTX3,REL,RELA,RELB,S100A8,CCL2,CCL3,CCL4,CCL5,CCL7,CCL8,CCL18,CCL20,CCL23,CXCL6,CXCL11,THBS1,TLR2,TNF,TNFSF4,VCAM1,WNT5A,RIPK2,SPHK1,CCRL2,OSMR,RASGRP1,TNIP1,KDM6B,TLR7,IL23A,TNIP2,ZC3H12A,CCR2,ACOD1,JAG1,ATP2B1,CD80,CD44,CSF3,CD55,EDN1,EREG,ACSL1,FUT4,GCH1,GPC3,IL1R1,ITGB8,LIF,MARCKS,NFKBIA,NINJ1,SERPINB2,PLAUR,RGS16,SDC4,SLC1A2,FSCN1,STAT5A,TNFAIP2,BTG2,FOSL1,SNN,PLPP3,TNFSF9,IER3,SLC28A2,TRIP10,LITAF,NAMPT,KIF1B,DENND5A,ICOSLG,PPP1R15A,MAFF,HIPK2,G0S2,DRAM1,TSLP,RNF144B</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Invasion</t>
+  </si>
+  <si>
+    <t>AEBP1,AKR1B1,AMD1,SLC25A5,ATP5PB,BAG1,BGN,C1QB,CALD1,CAPG,CCNE1,CDH11,CKS1B,CKS2,COL1A1,COL1A2,COL3A1,COL5A1,COL5A2,COL6A2,COL6A3,COL10A1,COL11A1,COMP,CSE1L,VCAN,CTSK,DAB2,DDX5,EDNRA,FAP,FBN1,FN1,GNAS,H2AFZ,HMGB2,HNRNPU,HSD17B4,CYR61,INHBA,LAMB1,LAMC1,LGALS1,LOX,LOXL2,LUM,MMP2,MMP11,HNRNPM,NDUFB7,YBX1,PDGFRB,PLAU,PRRX1,PNN,PPIC,PROS1,PSMA2,PSMB4,RGS4,SNAI2,SPOCK1,TGFBI,THBS2,THY1,TNFAIP6,UBE2V2,ADAM12,MFAP5,ITGBL1,TP53I3,NUAK1,HNRNPDL,TXNDC9,LRRC17,IFI30,POSTN,CBX1,NID2,RRAS2,RALY,SEPHS2,HEY1,MXRA5,OLFML2B,TMEM158,WWTR1,GREM1,NOX4,CLEC4A,COPZ2,ASPN,CEMIP,CRISPLD2,TUBB6,LRRC15,TUBB</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Metastasis</t>
+  </si>
+  <si>
+    <t>ACKR3,AFP,AGR2,AKT1,ALDH1A1,ANGPTL4,ANXA1,ANXA2,AQP5,ATF3,AURKA,AXL,B2M,BMI1,BMP2,BRAF,BSG,CA9,CCDC88A,CCND1,CCR7,CD24,CD274,CD44,CDCP1,CDH17,CDH2,CEACAM1,CEACAM5,CLIC1,CRP,CTGF,CTNND1,CTSB,CTSK,CTSL,CTTN,CXCL12,CXCL2,CXCL8,CXCR2,CYR61,DDR2,EGF,EGFR,EGR1,EPAS1,EPCAM,ERBB2,ERBB3,ESR1,ESR2,EZH2,EZR,F2RL1,FGFR1,FLOT2,FLT1,FLT4,FN1,FOXC2,FOXM1,GLI1,HGF,HIF1A,HMGA1,HMGA2,HPSE,ID1,IDO1,IGF1R,IGF2BP3,IL6,ITGA3,ITGA5,ITGA6,ITGAV,ITGB1,ITGB3,JAG1,KDR,KRAS,KRT19,L1CAM,LAMC2,LASP1,LGALS3,LOX,LOXL2,MACC1,MCAM,MDM2,MET,MIF,MKI67,MME,MMP1,MMP11,MMP13,MMP14,MMP2,MMP3,MMP7,MMP9,MSN,MST1R,MTA1,MTDH,MUC1,MYC,NEDD9,NOTCH1,NTRK2,PCNA,PDGFRA,PDPN,PIK3CA,PKM,PLAU,PLAUR,POSTN,PRKCI,PROM1,PSCA,PTGS2,PTHLH,PTK2,PTP4A3,PTTG1,PXN,RAB25,RAC1,RELA,RHOC,ROCK1,S100A4,SATB1,SDCBP,SELE,SELP,SLC2A1,SNAI1,SNAI2,SNCG,SOX4,SPARC,SPP1,SRC,STAT3,STMN1,TERT,TGFBI,TGM2,TIMP1,TMPRSS4,TNFSF11,TYMP,VCAN,VEGFA,VEGFC,VEGFD,VIM,WASF3,YAP1,ZEB1,ZEB2</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Proliferation</t>
+  </si>
+  <si>
+    <t>ADK,BAX,CCND1,BMPR1A,BUB1B,CCNA2,CCNB1,CD40,CDK1,CDC20,CYBA,HMGB2,IGFBP2,MKI67,PRKD1,TEK,TK1,TOP2A,DLGAP5,MELK,GINS1,KIF14,RACGAP1,ASPM,CD24,CX3CL1,IGF1,CD74,TP63,FGFR1,DCT,PTPRC,LHX5,ESR1,ABL1,XBP1,PDGFB,HIF1A,CD40LG,FGF9,FZD3,RIPK2,NUMBL,EBI3,WNT2,IL2,IL23A,VEGFA,SEMA5A,IL4,CD86,STAT1,ID2,DOCK7,SLAMF1,TNFSF4,WNT1,TNFSF9,MED1,SMO,TLR4,MYC,LEF1,ASCL1,FGF7,OSR1,IL18,WNT3A,WNT7A,DISC1,BMP10,SYK,IL13,BCL2,ID4,STAT5B,CD34,CTC1,TBX1,IRS2,TNFRSF4,HMGB1,ZNF335,NRARP,BMPR2,AGER,MIF,CCL5</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Quiescence</t>
+  </si>
+  <si>
+    <t>ALOX5,ANXA5,AREG,CREM,CRHBP,EMP1,EVI2A,GBP2,CXCL1,CXCL2,CXCL3,GUCY1A1,H1F0,HBB,HLX,IL1B,CXCL8,INHBA,CXCL10,JUN,TM4SF1,MLLT3,NR4A2,SERPINB2,PCDH9,PMCH,PTGS2,PTPRC,RGS1,RHAG,TSPAN31,CCL8,CCL19,CCL20,CXCL6,CXCL11,CXCL5,TRA2B,SPTBN1,SVIL,TCF7L2,TFPI,TGFB1I1,TPBG,TNFSF4,FXR1,NRIP1,HIST1H2AC,HIST2H2BE,PPFIBP1,TNFSF10,IL18R1,VNN1,CYTIP,OPTN,MPZL2,CXCL13,NFAT5,GLIPR1,RBPMS,FNBP1,MAFF,TRA2A,TPSB2,ZBTB10,HIST1H2BK</t>
+  </si>
+  <si>
+    <t>Yuan et al (2019) Stemness</t>
+  </si>
+  <si>
+    <t>AFMID,AFP,ANPEP,APC,AQP1,ASCL1,ASCL2,AXIN2,AZGP1,BAZ2B,BMI1,BOC,C6orf62,CA2,CAMK2N1,CCL5,CCND2,CD200,CD24,CD33,CD38,CD44,CDCA7,CDK6,CEBPA,CFTR,CHD7,CORO1C,CXCL2,DBX1,DBX2,DNMT3A,DPP4,EBF1,EEF1A1,EGFR,EIF4B,EMX1,EMX2,ENG,EPHB2,ETS2,ETV1,EVI2A,EZH2,FABP7,FAM84A,FBLIM1,FBXO27,FERMT1,FOXA2,FOXA3,FOXG1,GATA1,GATA2,GATA3,GATA4,GFAP,GFI1,GLI1,GPC3,GPM6A,GPSM2,GPX2,H19,H3F3B,HACD3,HAPLN1,HEPN1,HES1,HNRNPH1,HNRNPL,HOPX,ICAM1,IDH1,IKZF1,IRX3,ITGAM,KDR,KIT,KLK10,KRT14,LATS2,LGR5,LOH12CR2,LRIG1,LY6D,LYZ,MALAT1,MBOAT1,MESP1,MESP2,METTL3,MLLT10,MME,MYB,MYC,NANOG,NCAM1,NEK5,NELL2,NFE2,NFIA,NFIB,NKX2-5,NODAL,NT5E,OLFM4,OPHN1,ORC6,PABPC1,PAX6,POU5F1,PROM1,PTK7,PTMA,PTPRC,PTPRG,PTPRO,PTPRS,PTPRZ1,QPCTL,RAB42,RAMP2-AS1,RBM6,RGMB,RNF43,RUNX1,SET,SLC12A2,SMAD2,SMOC2,SOX1,SOX11,SOX17,SOX2,SOX3,SOX4,SOX9,SPDYE1,SPDYE5,SPHKAP,SRGAP2C,STMN1,STMN2,TAL1,TATDN3,TCF12,TCF4,TDGF1,TFDP2,TFRC,THY1,TNFAIP8L1,TOX3,TRA2A,TSPAN6,UGT8,VEGFA,ZBTB8A,ZNF793,ABCG2,ALDH1A1,ALDH1A3,DNER,MET</t>
+  </si>
+  <si>
+    <t>CancerSEA</t>
   </si>
 </sst>
 </file>
@@ -827,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,7 +919,8 @@
     <col min="1" max="1" width="53.453125" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -869,9 +951,6 @@
       <c r="D2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -884,9 +963,6 @@
       <c r="D3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -901,9 +977,6 @@
       <c r="D4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1401,7 +1474,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -1412,7 +1485,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -1423,7 +1496,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -1434,7 +1507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -1445,7 +1518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -1456,7 +1529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -1467,7 +1540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -1478,7 +1551,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1489,7 +1562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -1498,6 +1571,202 @@
       </c>
       <c r="D57" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A1435-C150-4F79-9FBE-61BB1E8FC905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EE7CF-BEBD-4C70-B252-078601DE09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
   <si>
     <t>ScoreType</t>
   </si>
@@ -531,7 +531,13 @@
     <t>AFMID,AFP,ANPEP,APC,AQP1,ASCL1,ASCL2,AXIN2,AZGP1,BAZ2B,BMI1,BOC,C6orf62,CA2,CAMK2N1,CCL5,CCND2,CD200,CD24,CD33,CD38,CD44,CDCA7,CDK6,CEBPA,CFTR,CHD7,CORO1C,CXCL2,DBX1,DBX2,DNMT3A,DPP4,EBF1,EEF1A1,EGFR,EIF4B,EMX1,EMX2,ENG,EPHB2,ETS2,ETV1,EVI2A,EZH2,FABP7,FAM84A,FBLIM1,FBXO27,FERMT1,FOXA2,FOXA3,FOXG1,GATA1,GATA2,GATA3,GATA4,GFAP,GFI1,GLI1,GPC3,GPM6A,GPSM2,GPX2,H19,H3F3B,HACD3,HAPLN1,HEPN1,HES1,HNRNPH1,HNRNPL,HOPX,ICAM1,IDH1,IKZF1,IRX3,ITGAM,KDR,KIT,KLK10,KRT14,LATS2,LGR5,LOH12CR2,LRIG1,LY6D,LYZ,MALAT1,MBOAT1,MESP1,MESP2,METTL3,MLLT10,MME,MYB,MYC,NANOG,NCAM1,NEK5,NELL2,NFE2,NFIA,NFIB,NKX2-5,NODAL,NT5E,OLFM4,OPHN1,ORC6,PABPC1,PAX6,POU5F1,PROM1,PTK7,PTMA,PTPRC,PTPRG,PTPRO,PTPRS,PTPRZ1,QPCTL,RAB42,RAMP2-AS1,RBM6,RGMB,RNF43,RUNX1,SET,SLC12A2,SMAD2,SMOC2,SOX1,SOX11,SOX17,SOX2,SOX3,SOX4,SOX9,SPDYE1,SPDYE5,SPHKAP,SRGAP2C,STMN1,STMN2,TAL1,TATDN3,TCF12,TCF4,TDGF1,TFDP2,TFRC,THY1,TNFAIP8L1,TOX3,TRA2A,TSPAN6,UGT8,VEGFA,ZBTB8A,ZNF793,ABCG2,ALDH1A1,ALDH1A3,DNER,MET</t>
   </si>
   <si>
-    <t>CancerSEA</t>
+    <t>CancerSEA [PMID:30329142]</t>
+  </si>
+  <si>
+    <t>Cell Cycle [PMID:34101353]</t>
+  </si>
+  <si>
+    <t>Cell Cycle [MSigDB]</t>
   </si>
 </sst>
 </file>
@@ -910,9 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1295,7 +1299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1374,8 +1378,11 @@
       <c r="D39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1385,8 +1392,11 @@
       <c r="D40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1396,8 +1406,11 @@
       <c r="D41" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1407,8 +1420,11 @@
       <c r="D42" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1418,8 +1434,11 @@
       <c r="D43" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1429,8 +1448,11 @@
       <c r="D44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="D45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1451,8 +1476,11 @@
       <c r="D46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -1462,8 +1490,11 @@
       <c r="D47" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -1472,6 +1503,9 @@
       </c>
       <c r="D48" t="s">
         <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1484,6 +1518,9 @@
       <c r="D49" t="s">
         <v>134</v>
       </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -1495,6 +1532,9 @@
       <c r="D50" t="s">
         <v>134</v>
       </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -1506,6 +1546,9 @@
       <c r="D51" t="s">
         <v>134</v>
       </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -1517,6 +1560,9 @@
       <c r="D52" t="s">
         <v>134</v>
       </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -1528,6 +1574,9 @@
       <c r="D53" t="s">
         <v>91</v>
       </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -1539,6 +1588,9 @@
       <c r="D54" t="s">
         <v>91</v>
       </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -1550,6 +1602,9 @@
       <c r="D55" t="s">
         <v>91</v>
       </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -1561,6 +1616,9 @@
       <c r="D56" t="s">
         <v>91</v>
       </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -1571,6 +1629,9 @@
       </c>
       <c r="D57" t="s">
         <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EE7CF-BEBD-4C70-B252-078601DE09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF705B9-CCE5-4EA6-A5FC-649CD096F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="182">
   <si>
     <t>ScoreType</t>
   </si>
@@ -538,6 +538,39 @@
   </si>
   <si>
     <t>Cell Cycle [MSigDB]</t>
+  </si>
+  <si>
+    <t>C1R,C5AR1,CASP1,CCL3,LFNG,LFNGR1,LFNGR2,II1B,II1R1,II1R2,II6,NOS2,PTGS2,PTK2B,TNF,TNFRSF1A,TNFRSF1B</t>
+  </si>
+  <si>
+    <t>PMID:30087595</t>
+  </si>
+  <si>
+    <t>ARG1,CCL22,CD163,CHI3L3,II1RN,II4,II4R,II10,II10RA,II10RB,II13RA1,MRC1,MYC,PPARG,RETNLA,TGFB1,TGFBR1,TGFBR2</t>
+  </si>
+  <si>
+    <t>AGER,AIF,CCR2,CCR5,CD68,CSF1R,CX3CR1,ITGAM,KDM6B,NFKBIA,NR3C1,PRKAA1,SOCS1,SOCS3,SPARC,TIR2,TIR4,TREM1,TREM2,TSPO</t>
+  </si>
+  <si>
+    <t>ADORA1,ADORA2A,AXI,CYBB,FCGR1A,FCGR2B,FCGR3A,HAVCR2,HVCN1,ITGB2,MSR1,NCF1,NOX1,NOX4,P2RX7,P2RY2,P2RY6,P2RY12,SIRPA</t>
+  </si>
+  <si>
+    <t>CALM1,KCNA2,KCNA3,KCNA5,KCNJ2,KCNMA1,KCNN3,KCNN4,MTMR6,NME2,ORAI1,ORAI3,PHTP1,PTPN6,REST,SIC8A1,STIM1,STIM3,TRPM2,TRPM4,TRPM7</t>
+  </si>
+  <si>
+    <t>Lively et al (2018) Pro-inflammatory mediators</t>
+  </si>
+  <si>
+    <t>Lively et al (2018) Anti-inflammatory genes &amp; receptors</t>
+  </si>
+  <si>
+    <t>Lively et al (2018) Microglia markers &amp; immune modulators</t>
+  </si>
+  <si>
+    <t>Lively et al (2018) Microglia physiological functions</t>
+  </si>
+  <si>
+    <t>Lively et al (2018) Ion channels &amp; regulators</t>
   </si>
 </sst>
 </file>
@@ -914,20 +947,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.21875" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +979,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -956,7 +991,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>135</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1026,7 +1061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1037,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1059,7 +1094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -1081,7 +1116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1092,7 +1127,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1114,7 +1149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1125,7 +1160,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1147,7 +1182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1169,7 +1204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1180,7 +1215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1191,7 +1226,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1205,7 +1240,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -1335,7 +1370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1346,7 +1381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1392,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1382,7 +1417,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -1494,7 +1529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -1522,7 +1557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -1550,7 +1585,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -1564,7 +1599,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -1578,7 +1613,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -1592,7 +1627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1620,7 +1655,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -1634,7 +1669,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -1662,7 +1697,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -1718,7 +1753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -1732,7 +1767,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -1774,7 +1809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -1816,7 +1851,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -1828,6 +1863,61 @@
       </c>
       <c r="E71" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF705B9-CCE5-4EA6-A5FC-649CD096F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36307DF6-898B-4D8A-8A3A-8E7365247E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="183">
   <si>
     <t>ScoreType</t>
   </si>
@@ -540,24 +540,9 @@
     <t>Cell Cycle [MSigDB]</t>
   </si>
   <si>
-    <t>C1R,C5AR1,CASP1,CCL3,LFNG,LFNGR1,LFNGR2,II1B,II1R1,II1R2,II6,NOS2,PTGS2,PTK2B,TNF,TNFRSF1A,TNFRSF1B</t>
-  </si>
-  <si>
     <t>PMID:30087595</t>
   </si>
   <si>
-    <t>ARG1,CCL22,CD163,CHI3L3,II1RN,II4,II4R,II10,II10RA,II10RB,II13RA1,MRC1,MYC,PPARG,RETNLA,TGFB1,TGFBR1,TGFBR2</t>
-  </si>
-  <si>
-    <t>AGER,AIF,CCR2,CCR5,CD68,CSF1R,CX3CR1,ITGAM,KDM6B,NFKBIA,NR3C1,PRKAA1,SOCS1,SOCS3,SPARC,TIR2,TIR4,TREM1,TREM2,TSPO</t>
-  </si>
-  <si>
-    <t>ADORA1,ADORA2A,AXI,CYBB,FCGR1A,FCGR2B,FCGR3A,HAVCR2,HVCN1,ITGB2,MSR1,NCF1,NOX1,NOX4,P2RX7,P2RY2,P2RY6,P2RY12,SIRPA</t>
-  </si>
-  <si>
-    <t>CALM1,KCNA2,KCNA3,KCNA5,KCNJ2,KCNMA1,KCNN3,KCNN4,MTMR6,NME2,ORAI1,ORAI3,PHTP1,PTPN6,REST,SIC8A1,STIM1,STIM3,TRPM2,TRPM4,TRPM7</t>
-  </si>
-  <si>
     <t>Lively et al (2018) Pro-inflammatory mediators</t>
   </si>
   <si>
@@ -571,6 +556,24 @@
   </si>
   <si>
     <t>Lively et al (2018) Ion channels &amp; regulators</t>
+  </si>
+  <si>
+    <t>C1R,C5AR1,CASP1,CCL3,IFNG,IFNGR1,IFNGR2,IL1B,IL1R1,IL1R2,IL6,NOS2,PTGS2,PTK2B,TNF,TNFRSF1A,TNFRSF1B</t>
+  </si>
+  <si>
+    <t>ARG1,CCL22,CD163,CHI3L3,IL1RN,IL4,IL4RA,IL10,IL10RA,IL10RB,IL13RA1,MRC1,MYC,PPARG,RETNLA,TGFB1,TGFBR1,TGFBR2</t>
+  </si>
+  <si>
+    <t>AGER,AIFM1,CCR2,CCR5,CD68,CSF1R,CX3CR1,ITGAM,KDM6B,NFKBIA,NR3C1,PRKAA1,SOCS1,SOCS3,SPARC,TLR2,TLR4,TREM1,TREM2,TSPO</t>
+  </si>
+  <si>
+    <t>ADORA1,ADORA2A,AXL,CYBB,FCGR1A,FCGR2B,FCGR4,HAVCR2,HVCN1,ITGB2,MSR1,NCF1,NOX1,NOX4,P2RX7,P2RY2,P2RY6,P2RY12,SIRPA</t>
+  </si>
+  <si>
+    <t>CALM1,KCNA2,KCNA3,KCNA5,KCNJ2,KCNMA1,KCNN3,KCNN4,MTMR6,NME2,ORAI1,ORAI3,PHTP1,PTPN6,REST,SLC8A1,STIM1,STIM2,CLU,TRPM4,TRPM7</t>
+  </si>
+  <si>
+    <t>Microglia Function [PMID:3008795]</t>
   </si>
 </sst>
 </file>
@@ -949,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,57 +1870,72 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D72" t="s">
         <v>171</v>
       </c>
-      <c r="D72" t="s">
-        <v>172</v>
+      <c r="E72" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E74" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36307DF6-898B-4D8A-8A3A-8E7365247E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CFA65-C28B-42B8-AEA0-7DA8872B9397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>HLA-DPB1,IFNG,MIR4435-2HG,TNS3,HLA-DPA1,ENTPD1,GEM,GZMA,CCL3,HLA-DQB1,HLA-DRB1,HLA-DQA1,HLA-DRB5,HLA-DQA1,HLA-DRB5,HLA-DRA,CXCL13</t>
   </si>
   <si>
-    <t>Oliviera, Wu, Nature 2021,RARA,GADD45B,C1orf21,AOAH,MATK,SATB1,MBP,ANTXR2,RORA,CCR7,ANXA1,BACH2,GLUL,TNFSF14,AUTS2,PERP,EPHA4,TCF7,SELL,MYC,IL7R,CD300A,ITGA5,GPR183,KLF3,S1PR1</t>
-  </si>
-  <si>
     <t>IL7R,GPR183,KLRC1,GPR15,ARL4A,PTGER2,AUTS2,RARA,PIK3R1,LYAR,NUDT11,KLF3,CCND3,CLDND1,YPEL5</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>Zhang et al (2021) T-Cell exhaustion (mouse)</t>
   </si>
   <si>
-    <t>ADA,C1QTNF7,CACNA2D2,CELF2,CLOCK,DIXDC1,EPHX1,FAT1,GIMAP5,HERPUD1,ICOS,KCNMA1,MICU3,NAALAD2,NAP1L5,NRXN1,OPHN1,PBXIP1,RBM38,RPS6KA5,SEC61G,SFTPC,SLC25A42,</t>
-  </si>
-  <si>
     <t>He et al (2022) Circadian-related genes</t>
   </si>
   <si>
@@ -574,6 +568,12 @@
   </si>
   <si>
     <t>Microglia Function [PMID:3008795]</t>
+  </si>
+  <si>
+    <t>RARA,GADD45B,C1orf21,AOAH,MATK,SATB1,MBP,ANTXR2,RORA,CCR7,ANXA1,BACH2,GLUL,TNFSF14,AUTS2,PERP,EPHA4,TCF7,SELL,MYC,IL7R,CD300A,ITGA5,GPR183,KLF3,S1PR1</t>
+  </si>
+  <si>
+    <t>ADA,C1QTNF7,CACNA2D2,CELF2,CLOCK,DIXDC1,EPHX1,FAT1,GIMAP5,HERPUD1,ICOS,KCNMA1,MICU3,NAALAD2,NAP1L5,NRXN1,OPHN1,PBXIP1,RBM38,RPS6KA5,SEC61G,SFTPC,SLC25A42</t>
   </si>
 </sst>
 </file>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,50 +979,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1044,29 +1044,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1077,24 +1077,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,832 +1110,832 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" t="s">
         <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="D53" t="s">
-        <v>91</v>
-      </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" t="s">
-        <v>141</v>
-      </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
         <v>166</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
         <v>180</v>
-      </c>
-      <c r="D75" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CFA65-C28B-42B8-AEA0-7DA8872B9397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13E163-9EC6-423E-8F52-F459A0169F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="186">
   <si>
     <t>ScoreType</t>
   </si>
@@ -574,6 +574,15 @@
   </si>
   <si>
     <t>ADA,C1QTNF7,CACNA2D2,CELF2,CLOCK,DIXDC1,EPHX1,FAT1,GIMAP5,HERPUD1,ICOS,KCNMA1,MICU3,NAALAD2,NAP1L5,NRXN1,OPHN1,PBXIP1,RBM38,RPS6KA5,SEC61G,SFTPC,SLC25A42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:35864314 </t>
+  </si>
+  <si>
+    <t>PDGFRA,PDGFRB,ISLR,MXRA8,EMILIN1,FXYD1,SYNPO2,PRRX1,OSR2,CARMN,TBX3,CTSK,COL14A1,COL5A2,MFAP4,CPXM1,COL5A1,DDR2,HAND2,HAND2-AS1,PEG3,CD248,NR2F2-AS1,EDNRA,LMOD1,RORB,CLMP,DNM3OS,OGN,ADRA2C,PCDH18,F10,TWIST1,TWIST2,MUM1L1,FOXL2,HSPB6,APOD,LAMA2,CXCL12,ECM2,ALDH1A2,TMEM45A</t>
+  </si>
+  <si>
+    <t>Tan et al (2022) Stromal cell</t>
   </si>
 </sst>
 </file>
@@ -950,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,59 +993,61 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1044,21 +1055,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>103</v>
@@ -1066,65 +1077,65 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -1132,21 +1143,21 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>112</v>
@@ -1154,10 +1165,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -1165,10 +1176,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>112</v>
@@ -1176,10 +1187,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
@@ -1187,10 +1198,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
@@ -1198,10 +1209,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
@@ -1209,10 +1220,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
@@ -1220,24 +1231,21 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
@@ -1245,13 +1253,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>123</v>
@@ -1259,13 +1267,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>123</v>
@@ -1273,10 +1281,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>123</v>
@@ -1284,21 +1295,21 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -1306,10 +1317,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -1317,10 +1328,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -1328,10 +1339,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
@@ -1339,10 +1350,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
@@ -1350,24 +1361,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
@@ -1375,21 +1386,21 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>131</v>
@@ -1397,10 +1408,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
         <v>131</v>
@@ -1408,24 +1419,21 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>132</v>
@@ -1436,10 +1444,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
         <v>132</v>
@@ -1450,10 +1458,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
         <v>132</v>
@@ -1464,10 +1472,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>132</v>
@@ -1478,10 +1486,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
@@ -1492,10 +1500,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -1506,10 +1514,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -1520,10 +1528,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
         <v>132</v>
@@ -1534,10 +1542,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
         <v>132</v>
@@ -1548,10 +1556,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
         <v>132</v>
@@ -1562,10 +1570,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
         <v>132</v>
@@ -1576,10 +1584,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
@@ -1590,10 +1598,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>132</v>
@@ -1604,24 +1612,24 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
         <v>90</v>
@@ -1632,10 +1640,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>90</v>
@@ -1646,10 +1654,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>90</v>
@@ -1660,10 +1668,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -1674,24 +1682,24 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -1702,10 +1710,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
         <v>139</v>
@@ -1716,10 +1724,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
         <v>139</v>
@@ -1730,10 +1738,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
         <v>139</v>
@@ -1744,10 +1752,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
         <v>139</v>
@@ -1758,10 +1766,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
@@ -1772,10 +1780,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>139</v>
@@ -1786,10 +1794,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
         <v>139</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
         <v>139</v>
@@ -1814,10 +1822,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
         <v>139</v>
@@ -1828,10 +1836,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
         <v>139</v>
@@ -1842,10 +1850,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>139</v>
@@ -1856,10 +1864,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
@@ -1870,24 +1878,24 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
         <v>169</v>
@@ -1898,10 +1906,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
         <v>169</v>
@@ -1912,10 +1920,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
         <v>169</v>
@@ -1926,15 +1934,29 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
       </c>
       <c r="E76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
         <v>180</v>
       </c>
     </row>

--- a/resources/cellscores.xlsx
+++ b/resources/cellscores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13E163-9EC6-423E-8F52-F459A0169F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67CD39-2F1E-4C9A-8484-61325471FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
   <si>
     <t>ScoreType</t>
   </si>
@@ -583,6 +583,42 @@
   </si>
   <si>
     <t>Tan et al (2022) Stromal cell</t>
+  </si>
+  <si>
+    <t>WP_AUTOPHAGY</t>
+  </si>
+  <si>
+    <t>AKT1S1,AMBRA1,ATG101,ATG12,ATG13,ATG14,ATG16L1,ATG3,ATG5,ATG7,ATG9A,BECN1,DEPTOR,MAP1LC3B,MLST8,MTOR,PIK3C3,PIK3R4,PRKAA1,PRKAA2,PRKAB1,PRKAB2,PRKAG1,PRKAG2,PRKAG3,RB1CC1,RPTOR,ULK1,UVRAG,WIPI2</t>
+  </si>
+  <si>
+    <t>gsea-msigdb</t>
+  </si>
+  <si>
+    <t>SA_PROGRAMMED_CELL_DEATH</t>
+  </si>
+  <si>
+    <t>APAF1,BAD,BAK1,BAX,BCL10,BCL2,BCL2L1,BCL2L11,BID,CASP8AP2,CASP9,CES1</t>
+  </si>
+  <si>
+    <t>REACTOME_MITOCHONDRIAL_BIOGENESIS</t>
+  </si>
+  <si>
+    <t>ACSS2,ALAS1,APOO,APOOL,ATF2,ATP5F1A,ATP5F1B,ATP5F1C,ATP5F1D,ATP5F1E,ATP5MC1,ATP5MC2,ATP5MC3,ATP5ME,ATP5MF,ATP5MG,ATP5PB,ATP5PD,ATP5PF,ATP5PO,CALM1,CAMK4,CARM1,CHCHD3,CHCHD6,CHD9,CREB1,CREBBP,CRTC1,CRTC2,CRTC3,CYCS,DMAC2L,DNAJC11,ESRRA,GABPA,GABPB1,GLUD1,GLUD2,HCFC1,HDAC3,HELZ2,HSPA9,IDH2,IMMT,MAPK11,MAPK12,MAPK14,MED1,MEF2C,MEF2D,MICOS10,MICOS13,MT-ATP6,MT-ATP8,MTERF1,MTX1,MTX2,NCOA1,NCOA2,NCOA6,NCOR1,NR1D1,NRF1,PERM1,POLG2,POLRMT,PPARA,PPARGC1A,PPARGC1B,PPRC1,PRKAA2,PRKAB1,PRKAB2,PRKAG1,PRKAG2,PRKAG3,RXRA,SAMM50,SIRT3,SIRT4,SIRT5,SMARCD3,SOD2,SSBP1,TBL1X,TBL1XR1,TFAM,TFB1M,TFB2M,TGS1,TMEM11,TWNK,USP46</t>
+  </si>
+  <si>
+    <t>MITOCHONDRIAL_PART</t>
+  </si>
+  <si>
+    <t>ABCB6,ABCB7,ABCB8,ABCF2,ACADM,ADAP2,AIFM2,AIFM3,ALAS2,ALDH4A1,ATP5F1A,ATP5F1B,ATP5F1C,ATP5F1D,ATP5F1E,ATP5MC1,ATP5MC2,ATP5MC3,ATP5PB,ATP5PF,ATP5PO,BAX,BCKDHA,BCKDHB,BCKDK,BCL2,BCS1L,BNIP3,CASP7,CASQ1,CCAR2,COX15,COX18,COX6B2,CS,CYCS,DBT,DNAJA3,ETFA,ETFB,FIS1,GATM,GRPEL1,HADHB,HCCS,HSD3B1,HSD3B2,HTRA2,IMMT,MAOB,MARS2,MCL1,MFN2,MPV17,MRPL10,MRPL12,MRPL23,MRPL32,MRPL40,MRPL41,MRPL42,MRPL51,MRPL52,MRPL55,MRPS10,MRPS11,MRPS12,MRPS15,MRPS16,MRPS18A,MRPS18C,MRPS21,MRPS22,MRPS24,MRPS28,MRPS35,MRPS36,MSTO1,MT-ND1,MTX2,NDUFA1,NDUFA13,NDUFA2,NDUFA6,NDUFA9,NDUFAB1,NDUFB6,NDUFS1,NDUFS2,NDUFS3,NDUFS4,NDUFS7,NDUFS8,NDUFV1,NFS1,NNT,NR3C1,OGDH,OPA1,OXA1L,PHB1,PHB2,PIN4,PITRM1,PMPCA,POLG2,PPOX,RAB11FIP5,RAF1,RHOT1,RHOT2,SDHA,SDHAF3,SDHD,SLC25A1,SLC25A11,SLC25A15,SLC25A22,SLC25A3,SLC25A6,SUPV3L1,SURF1,TAMM41,TFB2M,TIMM10,TIMM13,TIMM17A,TIMM17B,TIMM23,TIMM44,TIMM50,TIMM8B,TIMM9,TOMM22,TOMM34,UCP3,UQCRB,UQCRC1,UQCRH,VDAC1,VDAC2,VDAC3</t>
+  </si>
+  <si>
+    <t>HALLMARK_APOPTOSIS</t>
+  </si>
+  <si>
+    <t>ADD1,AIFM3,ANKH,ANXA1,APP,ATF3,AVPR1A,BAX,BCAP31,BCL10,BCL2L1,BCL2L10,BCL2L11,BCL2L2,BGN,BID,BIK,BIRC3,BMF,BMP2,BNIP3L,BRCA1,BTG2,BTG3,CASP1,CASP2,CASP3,CASP4,CASP6,CASP7,CASP8,CASP9,CAV1,CCNA1,CCND1,CCND2,CD14,CD2,CD38,CD44,CD69,CDC25B,CDK2,CDKN1A,CDKN1B,CFLAR,CLU,CREBBP,CTH,CTNNB1,CYLD,DAP,DAP3,DCN,DDIT3,DFFA,DIABLO,DNAJA1,DNAJC3,DNM1L,DPYD,EBP,EGR3,EMP1,ENO2,ERBB2,ERBB3,EREG,ETF1,F2,F2R,FAS,FASLG,FDXR,FEZ1,GADD45A,GADD45B,GCH1,GNA15,GPX1,GPX3,GPX4,GSN,GSR,GSTM1,GUCY2D,H1-0,HGF,HMGB2,HMOX1,HSPB1,IER3,IFITM3,IFNB1,IFNGR1,IGF2R,IGFBP6,IL18,IL1A,IL1B,IL6,IRF1,ISG20,JUN,KRT18,LEF1,LGALS3,LMNA,LUM,MADD,MCL1,MGMT,MMP2,NEDD9,NEFH,PAK1,PDCD4,PDGFRB,PEA15,PLAT,PLCB2,PLPPR4,PMAIP1,PPP2R5B,PPP3R1,PPT1,PRF1,PSEN1,PSEN2,PTK2,RARA,RELA,RETSAT,RHOB,RHOT2,RNASEL,ROCK1,SAT1,SATB1,SC5D,SLC20A1,SMAD7,SOD1,SOD2,SPTAN1,SQSTM1,TAP1,TGFB2,TGFBR3,TIMP1,TIMP2,TIMP3,TNF,TNFRSF12A,TNFSF10,TOP2A,TSPO,TXNIP,VDAC2,WEE1,XIAP</t>
+  </si>
+  <si>
+    <t>Monica Selection</t>
   </si>
 </sst>
 </file>
@@ -959,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,6 +1996,76 @@
         <v>180</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
